--- a/Stock_data/Cencora.xlsx
+++ b/Stock_data/Cencora.xlsx
@@ -525,7 +525,7 @@
         <v>43832</v>
       </c>
       <c r="B4" t="n">
-        <v>79.70149230957031</v>
+        <v>79.70149993896484</v>
       </c>
       <c r="C4" t="n">
         <v>85.08000183105469</v>
@@ -548,7 +548,7 @@
         <v>43833</v>
       </c>
       <c r="B5" t="n">
-        <v>78.69914245605469</v>
+        <v>78.69915008544922</v>
       </c>
       <c r="C5" t="n">
         <v>84.01000213623047</v>
@@ -617,7 +617,7 @@
         <v>43838</v>
       </c>
       <c r="B8" t="n">
-        <v>80.048095703125</v>
+        <v>80.04811859130859</v>
       </c>
       <c r="C8" t="n">
         <v>85.44999694824219</v>
@@ -640,7 +640,7 @@
         <v>43839</v>
       </c>
       <c r="B9" t="n">
-        <v>81.18159484863281</v>
+        <v>81.18161773681641</v>
       </c>
       <c r="C9" t="n">
         <v>86.66000366210938</v>
@@ -663,7 +663,7 @@
         <v>43840</v>
       </c>
       <c r="B10" t="n">
-        <v>81.53759002685547</v>
+        <v>81.53759765625</v>
       </c>
       <c r="C10" t="n">
         <v>87.04000091552734</v>
@@ -709,7 +709,7 @@
         <v>43844</v>
       </c>
       <c r="B12" t="n">
-        <v>83.21443939208984</v>
+        <v>83.21445465087891</v>
       </c>
       <c r="C12" t="n">
         <v>88.83000183105469</v>
@@ -755,7 +755,7 @@
         <v>43846</v>
       </c>
       <c r="B14" t="n">
-        <v>85.67819213867188</v>
+        <v>85.67818450927734</v>
       </c>
       <c r="C14" t="n">
         <v>91.45999908447266</v>
@@ -778,7 +778,7 @@
         <v>43847</v>
       </c>
       <c r="B15" t="n">
-        <v>85.30345916748047</v>
+        <v>85.30345153808594</v>
       </c>
       <c r="C15" t="n">
         <v>91.05999755859375</v>
@@ -824,7 +824,7 @@
         <v>43852</v>
       </c>
       <c r="B17" t="n">
-        <v>86.21215057373047</v>
+        <v>86.21214294433594</v>
       </c>
       <c r="C17" t="n">
         <v>92.02999877929688</v>
@@ -847,7 +847,7 @@
         <v>43853</v>
       </c>
       <c r="B18" t="n">
-        <v>85.39714050292969</v>
+        <v>85.39714813232422</v>
       </c>
       <c r="C18" t="n">
         <v>91.16000366210938</v>
@@ -870,7 +870,7 @@
         <v>43854</v>
       </c>
       <c r="B19" t="n">
-        <v>83.29875183105469</v>
+        <v>83.29875946044922</v>
       </c>
       <c r="C19" t="n">
         <v>88.91999816894531</v>
@@ -916,7 +916,7 @@
         <v>43858</v>
       </c>
       <c r="B21" t="n">
-        <v>83.47672271728516</v>
+        <v>83.47673797607422</v>
       </c>
       <c r="C21" t="n">
         <v>89.11000061035156</v>
@@ -939,7 +939,7 @@
         <v>43859</v>
       </c>
       <c r="B22" t="n">
-        <v>84.17931365966797</v>
+        <v>84.17932891845703</v>
       </c>
       <c r="C22" t="n">
         <v>89.86000061035156</v>
@@ -962,7 +962,7 @@
         <v>43860</v>
       </c>
       <c r="B23" t="n">
-        <v>83.26126861572266</v>
+        <v>83.26126098632812</v>
       </c>
       <c r="C23" t="n">
         <v>88.87999725341797</v>
@@ -985,7 +985,7 @@
         <v>43861</v>
       </c>
       <c r="B24" t="n">
-        <v>80.15114593505859</v>
+        <v>80.15116882324219</v>
       </c>
       <c r="C24" t="n">
         <v>85.55999755859375</v>
@@ -1031,7 +1031,7 @@
         <v>43865</v>
       </c>
       <c r="B26" t="n">
-        <v>82.52121734619141</v>
+        <v>82.52122497558594</v>
       </c>
       <c r="C26" t="n">
         <v>88.08999633789062</v>
@@ -1054,7 +1054,7 @@
         <v>43866</v>
       </c>
       <c r="B27" t="n">
-        <v>85.65943145751953</v>
+        <v>85.65943908691406</v>
       </c>
       <c r="C27" t="n">
         <v>91.44000244140625</v>
@@ -1077,7 +1077,7 @@
         <v>43867</v>
       </c>
       <c r="B28" t="n">
-        <v>86.63369750976562</v>
+        <v>86.63371276855469</v>
       </c>
       <c r="C28" t="n">
         <v>92.48000335693359</v>
@@ -1100,7 +1100,7 @@
         <v>43868</v>
       </c>
       <c r="B29" t="n">
-        <v>86.12784576416016</v>
+        <v>86.12783050537109</v>
       </c>
       <c r="C29" t="n">
         <v>91.94000244140625</v>
@@ -1123,7 +1123,7 @@
         <v>43871</v>
       </c>
       <c r="B30" t="n">
-        <v>87.68287658691406</v>
+        <v>87.68288421630859</v>
       </c>
       <c r="C30" t="n">
         <v>93.59999847412109</v>
@@ -1146,7 +1146,7 @@
         <v>43872</v>
       </c>
       <c r="B31" t="n">
-        <v>88.59158325195312</v>
+        <v>88.59156799316406</v>
       </c>
       <c r="C31" t="n">
         <v>94.56999969482422</v>
@@ -1169,7 +1169,7 @@
         <v>43873</v>
       </c>
       <c r="B32" t="n">
-        <v>89.72508239746094</v>
+        <v>89.72505187988281</v>
       </c>
       <c r="C32" t="n">
         <v>95.77999877929688</v>
@@ -1192,7 +1192,7 @@
         <v>43874</v>
       </c>
       <c r="B33" t="n">
-        <v>88.93470001220703</v>
+        <v>88.93471527099609</v>
       </c>
       <c r="C33" t="n">
         <v>94.51999664306641</v>
@@ -1215,7 +1215,7 @@
         <v>43875</v>
       </c>
       <c r="B34" t="n">
-        <v>88.7841796875</v>
+        <v>88.78416442871094</v>
       </c>
       <c r="C34" t="n">
         <v>94.36000061035156</v>
@@ -1238,7 +1238,7 @@
         <v>43879</v>
       </c>
       <c r="B35" t="n">
-        <v>88.73711395263672</v>
+        <v>88.73710632324219</v>
       </c>
       <c r="C35" t="n">
         <v>94.30999755859375</v>
@@ -1261,7 +1261,7 @@
         <v>43880</v>
       </c>
       <c r="B36" t="n">
-        <v>89.50867462158203</v>
+        <v>89.50868225097656</v>
       </c>
       <c r="C36" t="n">
         <v>95.12999725341797</v>
@@ -1330,7 +1330,7 @@
         <v>43885</v>
       </c>
       <c r="B39" t="n">
-        <v>89.32051086425781</v>
+        <v>89.32049560546875</v>
       </c>
       <c r="C39" t="n">
         <v>94.93000030517578</v>
@@ -1399,7 +1399,7 @@
         <v>43888</v>
       </c>
       <c r="B42" t="n">
-        <v>81.47329711914062</v>
+        <v>81.47330474853516</v>
       </c>
       <c r="C42" t="n">
         <v>86.58999633789062</v>
@@ -1445,7 +1445,7 @@
         <v>43892</v>
       </c>
       <c r="B44" t="n">
-        <v>82.00963592529297</v>
+        <v>82.00962066650391</v>
       </c>
       <c r="C44" t="n">
         <v>87.16000366210938</v>
@@ -1468,7 +1468,7 @@
         <v>43893</v>
       </c>
       <c r="B45" t="n">
-        <v>80.79586029052734</v>
+        <v>80.79586791992188</v>
       </c>
       <c r="C45" t="n">
         <v>85.87000274658203</v>
@@ -1491,7 +1491,7 @@
         <v>43894</v>
       </c>
       <c r="B46" t="n">
-        <v>85.03935241699219</v>
+        <v>85.03934478759766</v>
       </c>
       <c r="C46" t="n">
         <v>90.37999725341797</v>
@@ -1514,7 +1514,7 @@
         <v>43895</v>
       </c>
       <c r="B47" t="n">
-        <v>81.83085632324219</v>
+        <v>81.83087158203125</v>
       </c>
       <c r="C47" t="n">
         <v>86.97000122070312</v>
@@ -1537,7 +1537,7 @@
         <v>43896</v>
       </c>
       <c r="B48" t="n">
-        <v>80.73940277099609</v>
+        <v>80.73939514160156</v>
       </c>
       <c r="C48" t="n">
         <v>85.80999755859375</v>
@@ -1583,7 +1583,7 @@
         <v>43900</v>
       </c>
       <c r="B50" t="n">
-        <v>80.98403930664062</v>
+        <v>80.98403167724609</v>
       </c>
       <c r="C50" t="n">
         <v>86.06999969482422</v>
@@ -1606,7 +1606,7 @@
         <v>43901</v>
       </c>
       <c r="B51" t="n">
-        <v>79.93963623046875</v>
+        <v>79.93961334228516</v>
       </c>
       <c r="C51" t="n">
         <v>84.95999908447266</v>
@@ -1629,7 +1629,7 @@
         <v>43902</v>
       </c>
       <c r="B52" t="n">
-        <v>75.73375701904297</v>
+        <v>75.7337646484375</v>
       </c>
       <c r="C52" t="n">
         <v>80.48999786376953</v>
@@ -1652,7 +1652,7 @@
         <v>43903</v>
       </c>
       <c r="B53" t="n">
-        <v>84.68178558349609</v>
+        <v>84.68181610107422</v>
       </c>
       <c r="C53" t="n">
         <v>90</v>
@@ -1675,7 +1675,7 @@
         <v>43906</v>
       </c>
       <c r="B54" t="n">
-        <v>75.7431640625</v>
+        <v>75.74317932128906</v>
       </c>
       <c r="C54" t="n">
         <v>80.5</v>
@@ -1698,7 +1698,7 @@
         <v>43907</v>
       </c>
       <c r="B55" t="n">
-        <v>84.21138000488281</v>
+        <v>84.21137237548828</v>
       </c>
       <c r="C55" t="n">
         <v>89.5</v>
@@ -1721,7 +1721,7 @@
         <v>43908</v>
       </c>
       <c r="B56" t="n">
-        <v>79.94904327392578</v>
+        <v>79.94902801513672</v>
       </c>
       <c r="C56" t="n">
         <v>84.97000122070312</v>
@@ -1744,7 +1744,7 @@
         <v>43909</v>
       </c>
       <c r="B57" t="n">
-        <v>80.91817474365234</v>
+        <v>80.91819000244141</v>
       </c>
       <c r="C57" t="n">
         <v>86</v>
@@ -1790,7 +1790,7 @@
         <v>43913</v>
       </c>
       <c r="B59" t="n">
-        <v>69.5614013671875</v>
+        <v>69.56138610839844</v>
       </c>
       <c r="C59" t="n">
         <v>73.93000030517578</v>
@@ -1813,7 +1813,7 @@
         <v>43914</v>
       </c>
       <c r="B60" t="n">
-        <v>75.13156127929688</v>
+        <v>75.131591796875</v>
       </c>
       <c r="C60" t="n">
         <v>79.84999847412109</v>
@@ -1859,7 +1859,7 @@
         <v>43916</v>
       </c>
       <c r="B62" t="n">
-        <v>79.18689727783203</v>
+        <v>79.18690490722656</v>
       </c>
       <c r="C62" t="n">
         <v>84.16000366210938</v>
@@ -1905,7 +1905,7 @@
         <v>43920</v>
       </c>
       <c r="B64" t="n">
-        <v>82.89407348632812</v>
+        <v>82.89408111572266</v>
       </c>
       <c r="C64" t="n">
         <v>88.09999847412109</v>
@@ -1951,7 +1951,7 @@
         <v>43922</v>
       </c>
       <c r="B66" t="n">
-        <v>81.13456726074219</v>
+        <v>81.13458251953125</v>
       </c>
       <c r="C66" t="n">
         <v>86.23000335693359</v>
@@ -1974,7 +1974,7 @@
         <v>43923</v>
       </c>
       <c r="B67" t="n">
-        <v>78.93287658691406</v>
+        <v>78.932861328125</v>
       </c>
       <c r="C67" t="n">
         <v>83.88999938964844</v>
@@ -1997,7 +1997,7 @@
         <v>43924</v>
       </c>
       <c r="B68" t="n">
-        <v>76.53353881835938</v>
+        <v>76.53353118896484</v>
       </c>
       <c r="C68" t="n">
         <v>81.33999633789062</v>
@@ -2020,7 +2020,7 @@
         <v>43927</v>
       </c>
       <c r="B69" t="n">
-        <v>81.19103240966797</v>
+        <v>81.19105529785156</v>
       </c>
       <c r="C69" t="n">
         <v>86.29000091552734</v>
@@ -2043,7 +2043,7 @@
         <v>43928</v>
       </c>
       <c r="B70" t="n">
-        <v>82.04726409912109</v>
+        <v>82.04725646972656</v>
       </c>
       <c r="C70" t="n">
         <v>87.19999694824219</v>
@@ -2066,7 +2066,7 @@
         <v>43929</v>
       </c>
       <c r="B71" t="n">
-        <v>83.11048889160156</v>
+        <v>83.11050415039062</v>
       </c>
       <c r="C71" t="n">
         <v>88.33000183105469</v>
@@ -2112,7 +2112,7 @@
         <v>43934</v>
       </c>
       <c r="B73" t="n">
-        <v>80.40065765380859</v>
+        <v>80.40068054199219</v>
       </c>
       <c r="C73" t="n">
         <v>85.44999694824219</v>
@@ -2158,7 +2158,7 @@
         <v>43936</v>
       </c>
       <c r="B75" t="n">
-        <v>83.11048889160156</v>
+        <v>83.11050415039062</v>
       </c>
       <c r="C75" t="n">
         <v>88.33000183105469</v>
@@ -2181,7 +2181,7 @@
         <v>43937</v>
       </c>
       <c r="B76" t="n">
-        <v>81.18161010742188</v>
+        <v>81.18162536621094</v>
       </c>
       <c r="C76" t="n">
         <v>86.27999877929688</v>
@@ -2204,7 +2204,7 @@
         <v>43938</v>
       </c>
       <c r="B77" t="n">
-        <v>83.91967010498047</v>
+        <v>83.919677734375</v>
       </c>
       <c r="C77" t="n">
         <v>89.19000244140625</v>
@@ -2227,7 +2227,7 @@
         <v>43941</v>
       </c>
       <c r="B78" t="n">
-        <v>84.32426452636719</v>
+        <v>84.32424926757812</v>
       </c>
       <c r="C78" t="n">
         <v>89.62000274658203</v>
@@ -2250,7 +2250,7 @@
         <v>43942</v>
       </c>
       <c r="B79" t="n">
-        <v>80.51357269287109</v>
+        <v>80.51356506347656</v>
       </c>
       <c r="C79" t="n">
         <v>85.56999969482422</v>
@@ -2296,7 +2296,7 @@
         <v>43944</v>
       </c>
       <c r="B81" t="n">
-        <v>82.10370635986328</v>
+        <v>82.10372924804688</v>
       </c>
       <c r="C81" t="n">
         <v>87.26000213623047</v>
@@ -2319,7 +2319,7 @@
         <v>43945</v>
       </c>
       <c r="B82" t="n">
-        <v>83.4586181640625</v>
+        <v>83.45862579345703</v>
       </c>
       <c r="C82" t="n">
         <v>88.69999694824219</v>
@@ -2365,7 +2365,7 @@
         <v>43949</v>
       </c>
       <c r="B84" t="n">
-        <v>84.23956298828125</v>
+        <v>84.23958587646484</v>
       </c>
       <c r="C84" t="n">
         <v>89.52999877929688</v>
@@ -2411,7 +2411,7 @@
         <v>43951</v>
       </c>
       <c r="B86" t="n">
-        <v>84.36191558837891</v>
+        <v>84.36188507080078</v>
       </c>
       <c r="C86" t="n">
         <v>89.66000366210938</v>
@@ -2434,7 +2434,7 @@
         <v>43952</v>
       </c>
       <c r="B87" t="n">
-        <v>81.27571868896484</v>
+        <v>81.27572631835938</v>
       </c>
       <c r="C87" t="n">
         <v>86.37999725341797</v>
@@ -2480,7 +2480,7 @@
         <v>43956</v>
       </c>
       <c r="B89" t="n">
-        <v>82.77177429199219</v>
+        <v>82.77175903320312</v>
       </c>
       <c r="C89" t="n">
         <v>87.97000122070312</v>
@@ -2549,7 +2549,7 @@
         <v>43959</v>
       </c>
       <c r="B92" t="n">
-        <v>82.88467407226562</v>
+        <v>82.88468170166016</v>
       </c>
       <c r="C92" t="n">
         <v>88.08999633789062</v>
@@ -2572,7 +2572,7 @@
         <v>43962</v>
       </c>
       <c r="B93" t="n">
-        <v>85.28400421142578</v>
+        <v>85.28398132324219</v>
       </c>
       <c r="C93" t="n">
         <v>90.63999938964844</v>
@@ -2595,7 +2595,7 @@
         <v>43963</v>
       </c>
       <c r="B94" t="n">
-        <v>83.345703125</v>
+        <v>83.34571838378906</v>
       </c>
       <c r="C94" t="n">
         <v>88.58000183105469</v>
@@ -2618,7 +2618,7 @@
         <v>43964</v>
       </c>
       <c r="B95" t="n">
-        <v>79.17749786376953</v>
+        <v>79.177490234375</v>
       </c>
       <c r="C95" t="n">
         <v>84.15000152587891</v>
@@ -2641,7 +2641,7 @@
         <v>43965</v>
       </c>
       <c r="B96" t="n">
-        <v>79.06458282470703</v>
+        <v>79.06459808349609</v>
       </c>
       <c r="C96" t="n">
         <v>84.02999877929688</v>
@@ -2664,7 +2664,7 @@
         <v>43966</v>
       </c>
       <c r="B97" t="n">
-        <v>81.08822631835938</v>
+        <v>81.08824157714844</v>
       </c>
       <c r="C97" t="n">
         <v>85.75</v>
@@ -2687,7 +2687,7 @@
         <v>43969</v>
       </c>
       <c r="B98" t="n">
-        <v>84.35068511962891</v>
+        <v>84.35066986083984</v>
       </c>
       <c r="C98" t="n">
         <v>89.19999694824219</v>
@@ -2710,7 +2710,7 @@
         <v>43970</v>
       </c>
       <c r="B99" t="n">
-        <v>84.75730895996094</v>
+        <v>84.75730133056641</v>
       </c>
       <c r="C99" t="n">
         <v>89.62999725341797</v>
@@ -2733,7 +2733,7 @@
         <v>43971</v>
       </c>
       <c r="B100" t="n">
-        <v>87.68878173828125</v>
+        <v>87.68877410888672</v>
       </c>
       <c r="C100" t="n">
         <v>92.73000335693359</v>
@@ -2756,7 +2756,7 @@
         <v>43972</v>
       </c>
       <c r="B101" t="n">
-        <v>87.23487091064453</v>
+        <v>87.23487854003906</v>
       </c>
       <c r="C101" t="n">
         <v>92.25</v>
@@ -2802,7 +2802,7 @@
         <v>43977</v>
       </c>
       <c r="B103" t="n">
-        <v>85.84477996826172</v>
+        <v>85.84478759765625</v>
       </c>
       <c r="C103" t="n">
         <v>90.77999877929688</v>
@@ -2825,7 +2825,7 @@
         <v>43978</v>
       </c>
       <c r="B104" t="n">
-        <v>88.25615692138672</v>
+        <v>88.25617218017578</v>
       </c>
       <c r="C104" t="n">
         <v>93.33000183105469</v>
@@ -2848,7 +2848,7 @@
         <v>43979</v>
       </c>
       <c r="B105" t="n">
-        <v>89.26799011230469</v>
+        <v>89.26799774169922</v>
       </c>
       <c r="C105" t="n">
         <v>94.40000152587891</v>
@@ -2871,7 +2871,7 @@
         <v>43980</v>
       </c>
       <c r="B106" t="n">
-        <v>90.15688323974609</v>
+        <v>90.15686798095703</v>
       </c>
       <c r="C106" t="n">
         <v>95.33999633789062</v>
@@ -2894,7 +2894,7 @@
         <v>43983</v>
       </c>
       <c r="B107" t="n">
-        <v>89.97720336914062</v>
+        <v>89.97721862792969</v>
       </c>
       <c r="C107" t="n">
         <v>95.15000152587891</v>
@@ -2917,7 +2917,7 @@
         <v>43984</v>
       </c>
       <c r="B108" t="n">
-        <v>93.29638671875</v>
+        <v>93.29640960693359</v>
       </c>
       <c r="C108" t="n">
         <v>98.66000366210938</v>
@@ -2940,7 +2940,7 @@
         <v>43985</v>
       </c>
       <c r="B109" t="n">
-        <v>94.08126831054688</v>
+        <v>94.08126068115234</v>
       </c>
       <c r="C109" t="n">
         <v>99.48999786376953</v>
@@ -2963,7 +2963,7 @@
         <v>43986</v>
       </c>
       <c r="B110" t="n">
-        <v>94.04343414306641</v>
+        <v>94.04345703125</v>
       </c>
       <c r="C110" t="n">
         <v>99.44999694824219</v>
@@ -3009,7 +3009,7 @@
         <v>43990</v>
       </c>
       <c r="B112" t="n">
-        <v>96.73851776123047</v>
+        <v>96.73850250244141</v>
       </c>
       <c r="C112" t="n">
         <v>102.3000030517578</v>
@@ -3032,7 +3032,7 @@
         <v>43991</v>
       </c>
       <c r="B113" t="n">
-        <v>94.46897125244141</v>
+        <v>94.46898651123047</v>
       </c>
       <c r="C113" t="n">
         <v>99.90000152587891</v>
@@ -3055,7 +3055,7 @@
         <v>43992</v>
       </c>
       <c r="B114" t="n">
-        <v>91.67935180664062</v>
+        <v>91.67934417724609</v>
       </c>
       <c r="C114" t="n">
         <v>96.94999694824219</v>
@@ -3078,7 +3078,7 @@
         <v>43993</v>
       </c>
       <c r="B115" t="n">
-        <v>88.42637634277344</v>
+        <v>88.42638397216797</v>
       </c>
       <c r="C115" t="n">
         <v>93.51000213623047</v>
@@ -3101,7 +3101,7 @@
         <v>43994</v>
       </c>
       <c r="B116" t="n">
-        <v>89.71241760253906</v>
+        <v>89.71244049072266</v>
       </c>
       <c r="C116" t="n">
         <v>94.87000274658203</v>
@@ -3124,7 +3124,7 @@
         <v>43997</v>
       </c>
       <c r="B117" t="n">
-        <v>90.97959136962891</v>
+        <v>90.97958374023438</v>
       </c>
       <c r="C117" t="n">
         <v>96.20999908447266</v>
@@ -3147,7 +3147,7 @@
         <v>43998</v>
       </c>
       <c r="B118" t="n">
-        <v>93.721923828125</v>
+        <v>93.72191619873047</v>
       </c>
       <c r="C118" t="n">
         <v>99.11000061035156</v>
@@ -3170,7 +3170,7 @@
         <v>43999</v>
       </c>
       <c r="B119" t="n">
-        <v>94.70539855957031</v>
+        <v>94.70540618896484</v>
       </c>
       <c r="C119" t="n">
         <v>100.1500015258789</v>
@@ -3193,7 +3193,7 @@
         <v>44000</v>
       </c>
       <c r="B120" t="n">
-        <v>94.79995727539062</v>
+        <v>94.79994964599609</v>
       </c>
       <c r="C120" t="n">
         <v>100.25</v>
@@ -3216,7 +3216,7 @@
         <v>44001</v>
       </c>
       <c r="B121" t="n">
-        <v>96.59667205810547</v>
+        <v>96.59666442871094</v>
       </c>
       <c r="C121" t="n">
         <v>102.1500015258789</v>
@@ -3262,7 +3262,7 @@
         <v>44005</v>
       </c>
       <c r="B123" t="n">
-        <v>95.98199462890625</v>
+        <v>95.98200988769531</v>
       </c>
       <c r="C123" t="n">
         <v>101.5</v>
@@ -3285,7 +3285,7 @@
         <v>44006</v>
       </c>
       <c r="B124" t="n">
-        <v>93.46659851074219</v>
+        <v>93.46660614013672</v>
       </c>
       <c r="C124" t="n">
         <v>98.83999633789062</v>
@@ -3331,7 +3331,7 @@
         <v>44008</v>
       </c>
       <c r="B126" t="n">
-        <v>93.78812408447266</v>
+        <v>93.78811645507812</v>
       </c>
       <c r="C126" t="n">
         <v>99.18000030517578</v>
@@ -3354,7 +3354,7 @@
         <v>44011</v>
       </c>
       <c r="B127" t="n">
-        <v>93.60844421386719</v>
+        <v>93.60845947265625</v>
       </c>
       <c r="C127" t="n">
         <v>98.98999786376953</v>
@@ -3377,7 +3377,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>95.29169464111328</v>
+        <v>95.29167175292969</v>
       </c>
       <c r="C128" t="n">
         <v>100.7699966430664</v>
@@ -3400,7 +3400,7 @@
         <v>44013</v>
       </c>
       <c r="B129" t="n">
-        <v>94.04343414306641</v>
+        <v>94.04345703125</v>
       </c>
       <c r="C129" t="n">
         <v>99.44999694824219</v>
@@ -3446,7 +3446,7 @@
         <v>44018</v>
       </c>
       <c r="B131" t="n">
-        <v>95.24439239501953</v>
+        <v>95.24440002441406</v>
       </c>
       <c r="C131" t="n">
         <v>100.7200012207031</v>
@@ -3469,7 +3469,7 @@
         <v>44019</v>
       </c>
       <c r="B132" t="n">
-        <v>92.95596313476562</v>
+        <v>92.95594787597656</v>
       </c>
       <c r="C132" t="n">
         <v>98.30000305175781</v>
@@ -3492,7 +3492,7 @@
         <v>44020</v>
       </c>
       <c r="B133" t="n">
-        <v>91.92522430419922</v>
+        <v>91.92520904541016</v>
       </c>
       <c r="C133" t="n">
         <v>97.20999908447266</v>
@@ -3515,7 +3515,7 @@
         <v>44021</v>
       </c>
       <c r="B134" t="n">
-        <v>91.14980316162109</v>
+        <v>91.14981079101562</v>
       </c>
       <c r="C134" t="n">
         <v>96.38999938964844</v>
@@ -3538,7 +3538,7 @@
         <v>44022</v>
       </c>
       <c r="B135" t="n">
-        <v>91.77393341064453</v>
+        <v>91.77391815185547</v>
       </c>
       <c r="C135" t="n">
         <v>97.05000305175781</v>
@@ -3561,7 +3561,7 @@
         <v>44025</v>
       </c>
       <c r="B136" t="n">
-        <v>91.98194122314453</v>
+        <v>91.98197174072266</v>
       </c>
       <c r="C136" t="n">
         <v>97.26999664306641</v>
@@ -3584,7 +3584,7 @@
         <v>44026</v>
       </c>
       <c r="B137" t="n">
-        <v>93.92996215820312</v>
+        <v>93.92994689941406</v>
       </c>
       <c r="C137" t="n">
         <v>99.33000183105469</v>
@@ -3607,7 +3607,7 @@
         <v>44027</v>
       </c>
       <c r="B138" t="n">
-        <v>96.36024475097656</v>
+        <v>96.36023712158203</v>
       </c>
       <c r="C138" t="n">
         <v>101.9000015258789</v>
@@ -3653,7 +3653,7 @@
         <v>44029</v>
       </c>
       <c r="B140" t="n">
-        <v>98.7716064453125</v>
+        <v>98.77162933349609</v>
       </c>
       <c r="C140" t="n">
         <v>104.4499969482422</v>
@@ -3676,7 +3676,7 @@
         <v>44032</v>
       </c>
       <c r="B141" t="n">
-        <v>96.63449096679688</v>
+        <v>96.63447570800781</v>
       </c>
       <c r="C141" t="n">
         <v>102.1900024414062</v>
@@ -3699,7 +3699,7 @@
         <v>44033</v>
       </c>
       <c r="B142" t="n">
-        <v>98.48792266845703</v>
+        <v>98.48793029785156</v>
       </c>
       <c r="C142" t="n">
         <v>104.1500015258789</v>
@@ -3722,7 +3722,7 @@
         <v>44034</v>
       </c>
       <c r="B143" t="n">
-        <v>98.16643524169922</v>
+        <v>98.16641998291016</v>
       </c>
       <c r="C143" t="n">
         <v>103.8099975585938</v>
@@ -3745,7 +3745,7 @@
         <v>44035</v>
       </c>
       <c r="B144" t="n">
-        <v>98.37444305419922</v>
+        <v>98.37446594238281</v>
       </c>
       <c r="C144" t="n">
         <v>104.0299987792969</v>
@@ -3768,7 +3768,7 @@
         <v>44036</v>
       </c>
       <c r="B145" t="n">
-        <v>98.11912536621094</v>
+        <v>98.11915588378906</v>
       </c>
       <c r="C145" t="n">
         <v>103.7600021362305</v>
@@ -3814,7 +3814,7 @@
         <v>44040</v>
       </c>
       <c r="B147" t="n">
-        <v>96.55882263183594</v>
+        <v>96.55883026123047</v>
       </c>
       <c r="C147" t="n">
         <v>102.1100006103516</v>
@@ -3837,7 +3837,7 @@
         <v>44041</v>
       </c>
       <c r="B148" t="n">
-        <v>97.69358825683594</v>
+        <v>97.69359588623047</v>
       </c>
       <c r="C148" t="n">
         <v>103.3099975585938</v>
@@ -3860,7 +3860,7 @@
         <v>44042</v>
       </c>
       <c r="B149" t="n">
-        <v>96.61557006835938</v>
+        <v>96.61558532714844</v>
       </c>
       <c r="C149" t="n">
         <v>102.1699981689453</v>
@@ -3883,7 +3883,7 @@
         <v>44043</v>
       </c>
       <c r="B150" t="n">
-        <v>94.74320220947266</v>
+        <v>94.74322509765625</v>
       </c>
       <c r="C150" t="n">
         <v>100.1900024414062</v>
@@ -3929,7 +3929,7 @@
         <v>44047</v>
       </c>
       <c r="B152" t="n">
-        <v>99.00802612304688</v>
+        <v>99.00804138183594</v>
       </c>
       <c r="C152" t="n">
         <v>104.6999969482422</v>
@@ -3952,7 +3952,7 @@
         <v>44048</v>
       </c>
       <c r="B153" t="n">
-        <v>97.87326812744141</v>
+        <v>97.87325286865234</v>
       </c>
       <c r="C153" t="n">
         <v>103.5</v>
@@ -3975,7 +3975,7 @@
         <v>44049</v>
       </c>
       <c r="B154" t="n">
-        <v>96.08602142333984</v>
+        <v>96.08600616455078</v>
       </c>
       <c r="C154" t="n">
         <v>101.6100006103516</v>
@@ -3998,7 +3998,7 @@
         <v>44050</v>
       </c>
       <c r="B155" t="n">
-        <v>96.54936218261719</v>
+        <v>96.54939270019531</v>
       </c>
       <c r="C155" t="n">
         <v>102.0999984741211</v>
@@ -4021,7 +4021,7 @@
         <v>44053</v>
       </c>
       <c r="B156" t="n">
-        <v>97.43826293945312</v>
+        <v>97.43827819824219</v>
       </c>
       <c r="C156" t="n">
         <v>103.0400009155273</v>
@@ -4044,7 +4044,7 @@
         <v>44054</v>
       </c>
       <c r="B157" t="n">
-        <v>95.8685302734375</v>
+        <v>95.86852264404297</v>
       </c>
       <c r="C157" t="n">
         <v>101.379997253418</v>
@@ -4067,7 +4067,7 @@
         <v>44055</v>
       </c>
       <c r="B158" t="n">
-        <v>97.92055511474609</v>
+        <v>97.92056274414062</v>
       </c>
       <c r="C158" t="n">
         <v>103.5500030517578</v>
@@ -4090,7 +4090,7 @@
         <v>44056</v>
       </c>
       <c r="B159" t="n">
-        <v>97.14511871337891</v>
+        <v>97.1451416015625</v>
       </c>
       <c r="C159" t="n">
         <v>102.7300033569336</v>
@@ -4113,7 +4113,7 @@
         <v>44057</v>
       </c>
       <c r="B160" t="n">
-        <v>98.51244354248047</v>
+        <v>98.51242828369141</v>
       </c>
       <c r="C160" t="n">
         <v>103.75</v>
@@ -4136,7 +4136,7 @@
         <v>44060</v>
       </c>
       <c r="B161" t="n">
-        <v>98.19908905029297</v>
+        <v>98.1990966796875</v>
       </c>
       <c r="C161" t="n">
         <v>103.4199981689453</v>
@@ -4159,7 +4159,7 @@
         <v>44061</v>
       </c>
       <c r="B162" t="n">
-        <v>97.64836883544922</v>
+        <v>97.64838409423828</v>
       </c>
       <c r="C162" t="n">
         <v>102.8399963378906</v>
@@ -4182,7 +4182,7 @@
         <v>44062</v>
       </c>
       <c r="B163" t="n">
-        <v>96.57541656494141</v>
+        <v>96.57543182373047</v>
       </c>
       <c r="C163" t="n">
         <v>101.7099990844727</v>
@@ -4274,7 +4274,7 @@
         <v>44068</v>
       </c>
       <c r="B167" t="n">
-        <v>93.31857299804688</v>
+        <v>93.31858825683594</v>
       </c>
       <c r="C167" t="n">
         <v>98.27999877929688</v>
@@ -4320,7 +4320,7 @@
         <v>44070</v>
       </c>
       <c r="B169" t="n">
-        <v>93.17616271972656</v>
+        <v>93.17613220214844</v>
       </c>
       <c r="C169" t="n">
         <v>98.12999725341797</v>
@@ -4343,7 +4343,7 @@
         <v>44071</v>
       </c>
       <c r="B170" t="n">
-        <v>92.62542724609375</v>
+        <v>92.62541961669922</v>
       </c>
       <c r="C170" t="n">
         <v>97.55000305175781</v>
@@ -4366,7 +4366,7 @@
         <v>44074</v>
       </c>
       <c r="B171" t="n">
-        <v>92.13166809082031</v>
+        <v>92.13167572021484</v>
       </c>
       <c r="C171" t="n">
         <v>97.02999877929688</v>
@@ -4389,7 +4389,7 @@
         <v>44075</v>
       </c>
       <c r="B172" t="n">
-        <v>89.53950500488281</v>
+        <v>89.53951263427734</v>
       </c>
       <c r="C172" t="n">
         <v>94.30000305175781</v>
@@ -4412,7 +4412,7 @@
         <v>44076</v>
       </c>
       <c r="B173" t="n">
-        <v>93.32806396484375</v>
+        <v>93.32807159423828</v>
       </c>
       <c r="C173" t="n">
         <v>98.29000091552734</v>
@@ -4481,7 +4481,7 @@
         <v>44082</v>
       </c>
       <c r="B176" t="n">
-        <v>90.54598236083984</v>
+        <v>90.54598999023438</v>
       </c>
       <c r="C176" t="n">
         <v>95.36000061035156</v>
@@ -4504,7 +4504,7 @@
         <v>44083</v>
       </c>
       <c r="B177" t="n">
-        <v>91.34357452392578</v>
+        <v>91.34355926513672</v>
       </c>
       <c r="C177" t="n">
         <v>96.19999694824219</v>
@@ -4527,7 +4527,7 @@
         <v>44084</v>
       </c>
       <c r="B178" t="n">
-        <v>89.51100158691406</v>
+        <v>89.51100921630859</v>
       </c>
       <c r="C178" t="n">
         <v>94.26999664306641</v>
@@ -4550,7 +4550,7 @@
         <v>44085</v>
       </c>
       <c r="B179" t="n">
-        <v>89.33059692382812</v>
+        <v>89.33061218261719</v>
       </c>
       <c r="C179" t="n">
         <v>94.08000183105469</v>
@@ -4573,7 +4573,7 @@
         <v>44088</v>
       </c>
       <c r="B180" t="n">
-        <v>89.82434844970703</v>
+        <v>89.82432556152344</v>
       </c>
       <c r="C180" t="n">
         <v>94.59999847412109</v>
@@ -4596,7 +4596,7 @@
         <v>44089</v>
       </c>
       <c r="B181" t="n">
-        <v>90.10919189453125</v>
+        <v>90.10919952392578</v>
       </c>
       <c r="C181" t="n">
         <v>94.90000152587891</v>
@@ -4619,7 +4619,7 @@
         <v>44090</v>
       </c>
       <c r="B182" t="n">
-        <v>91.90380096435547</v>
+        <v>91.90380859375</v>
       </c>
       <c r="C182" t="n">
         <v>96.79000091552734</v>
@@ -4642,7 +4642,7 @@
         <v>44091</v>
       </c>
       <c r="B183" t="n">
-        <v>91.92277526855469</v>
+        <v>91.92278289794922</v>
       </c>
       <c r="C183" t="n">
         <v>96.80999755859375</v>
@@ -4665,7 +4665,7 @@
         <v>44092</v>
       </c>
       <c r="B184" t="n">
-        <v>91.94175720214844</v>
+        <v>91.94176483154297</v>
       </c>
       <c r="C184" t="n">
         <v>96.83000183105469</v>
@@ -4734,7 +4734,7 @@
         <v>44097</v>
       </c>
       <c r="B187" t="n">
-        <v>89.38756561279297</v>
+        <v>89.3875732421875</v>
       </c>
       <c r="C187" t="n">
         <v>94.13999938964844</v>
@@ -4780,7 +4780,7 @@
         <v>44099</v>
       </c>
       <c r="B189" t="n">
-        <v>91.91330718994141</v>
+        <v>91.91329956054688</v>
       </c>
       <c r="C189" t="n">
         <v>96.80000305175781</v>
@@ -4826,7 +4826,7 @@
         <v>44103</v>
       </c>
       <c r="B191" t="n">
-        <v>91.30558776855469</v>
+        <v>91.30561065673828</v>
       </c>
       <c r="C191" t="n">
         <v>96.16000366210938</v>
@@ -4849,7 +4849,7 @@
         <v>44104</v>
       </c>
       <c r="B192" t="n">
-        <v>92.02722930908203</v>
+        <v>92.0272216796875</v>
       </c>
       <c r="C192" t="n">
         <v>96.91999816894531</v>
@@ -4872,7 +4872,7 @@
         <v>44105</v>
       </c>
       <c r="B193" t="n">
-        <v>90.54598236083984</v>
+        <v>90.54598999023438</v>
       </c>
       <c r="C193" t="n">
         <v>95.36000061035156</v>
@@ -4895,7 +4895,7 @@
         <v>44106</v>
       </c>
       <c r="B194" t="n">
-        <v>90.56497955322266</v>
+        <v>90.56497192382812</v>
       </c>
       <c r="C194" t="n">
         <v>95.37999725341797</v>
@@ -4918,7 +4918,7 @@
         <v>44109</v>
       </c>
       <c r="B195" t="n">
-        <v>91.52399444580078</v>
+        <v>91.52398681640625</v>
       </c>
       <c r="C195" t="n">
         <v>96.38999938964844</v>
@@ -4941,7 +4941,7 @@
         <v>44110</v>
       </c>
       <c r="B196" t="n">
-        <v>90.80234527587891</v>
+        <v>90.80236053466797</v>
       </c>
       <c r="C196" t="n">
         <v>95.62999725341797</v>
@@ -4964,7 +4964,7 @@
         <v>44111</v>
       </c>
       <c r="B197" t="n">
-        <v>90.76438903808594</v>
+        <v>90.76437377929688</v>
       </c>
       <c r="C197" t="n">
         <v>95.58999633789062</v>
@@ -5056,7 +5056,7 @@
         <v>44117</v>
       </c>
       <c r="B201" t="n">
-        <v>92.35954284667969</v>
+        <v>92.35956573486328</v>
       </c>
       <c r="C201" t="n">
         <v>97.26999664306641</v>
@@ -5079,7 +5079,7 @@
         <v>44118</v>
       </c>
       <c r="B202" t="n">
-        <v>93.47050476074219</v>
+        <v>93.47048950195312</v>
       </c>
       <c r="C202" t="n">
         <v>98.44000244140625</v>
@@ -5148,7 +5148,7 @@
         <v>44123</v>
       </c>
       <c r="B205" t="n">
-        <v>92.86281585693359</v>
+        <v>92.86280822753906</v>
       </c>
       <c r="C205" t="n">
         <v>97.80000305175781</v>
@@ -5194,7 +5194,7 @@
         <v>44125</v>
       </c>
       <c r="B207" t="n">
-        <v>92.79635620117188</v>
+        <v>92.79634857177734</v>
       </c>
       <c r="C207" t="n">
         <v>97.73000335693359</v>
@@ -5286,7 +5286,7 @@
         <v>44131</v>
       </c>
       <c r="B211" t="n">
-        <v>92.72039794921875</v>
+        <v>92.72039031982422</v>
       </c>
       <c r="C211" t="n">
         <v>97.65000152587891</v>
@@ -5309,7 +5309,7 @@
         <v>44132</v>
       </c>
       <c r="B212" t="n">
-        <v>90.86880493164062</v>
+        <v>90.86879730224609</v>
       </c>
       <c r="C212" t="n">
         <v>95.69999694824219</v>
@@ -5332,7 +5332,7 @@
         <v>44133</v>
       </c>
       <c r="B213" t="n">
-        <v>89.81484985351562</v>
+        <v>89.81485748291016</v>
       </c>
       <c r="C213" t="n">
         <v>94.58999633789062</v>
@@ -5355,7 +5355,7 @@
         <v>44134</v>
       </c>
       <c r="B214" t="n">
-        <v>91.22013854980469</v>
+        <v>91.22014617919922</v>
       </c>
       <c r="C214" t="n">
         <v>96.06999969482422</v>
@@ -5378,7 +5378,7 @@
         <v>44137</v>
       </c>
       <c r="B215" t="n">
-        <v>93.94527435302734</v>
+        <v>93.94525146484375</v>
       </c>
       <c r="C215" t="n">
         <v>98.94000244140625</v>
@@ -5424,7 +5424,7 @@
         <v>44139</v>
       </c>
       <c r="B217" t="n">
-        <v>99.68984222412109</v>
+        <v>99.68984985351562</v>
       </c>
       <c r="C217" t="n">
         <v>104.9899978637695</v>
@@ -5447,7 +5447,7 @@
         <v>44140</v>
       </c>
       <c r="B218" t="n">
-        <v>100.0981216430664</v>
+        <v>100.0981292724609</v>
       </c>
       <c r="C218" t="n">
         <v>105.4199981689453</v>
@@ -5470,7 +5470,7 @@
         <v>44141</v>
       </c>
       <c r="B219" t="n">
-        <v>98.70233154296875</v>
+        <v>98.70234680175781</v>
       </c>
       <c r="C219" t="n">
         <v>103.9499969482422</v>
@@ -5516,7 +5516,7 @@
         <v>44145</v>
       </c>
       <c r="B221" t="n">
-        <v>104.5228881835938</v>
+        <v>104.5228958129883</v>
       </c>
       <c r="C221" t="n">
         <v>110.0800018310547</v>
@@ -5539,7 +5539,7 @@
         <v>44146</v>
       </c>
       <c r="B222" t="n">
-        <v>101.9117126464844</v>
+        <v>101.9116973876953</v>
       </c>
       <c r="C222" t="n">
         <v>107.3300018310547</v>
@@ -5562,7 +5562,7 @@
         <v>44147</v>
       </c>
       <c r="B223" t="n">
-        <v>100.7437973022461</v>
+        <v>100.7438049316406</v>
       </c>
       <c r="C223" t="n">
         <v>106.0999984741211</v>
@@ -5585,7 +5585,7 @@
         <v>44148</v>
       </c>
       <c r="B224" t="n">
-        <v>103.0893478393555</v>
+        <v>103.08935546875</v>
       </c>
       <c r="C224" t="n">
         <v>108.120002746582</v>
@@ -5608,7 +5608,7 @@
         <v>44151</v>
       </c>
       <c r="B225" t="n">
-        <v>103.9379501342773</v>
+        <v>103.9379425048828</v>
       </c>
       <c r="C225" t="n">
         <v>109.0100021362305</v>
@@ -5631,7 +5631,7 @@
         <v>44152</v>
       </c>
       <c r="B226" t="n">
-        <v>100.0096282958984</v>
+        <v>100.009651184082</v>
       </c>
       <c r="C226" t="n">
         <v>104.8899993896484</v>
@@ -5654,7 +5654,7 @@
         <v>44153</v>
       </c>
       <c r="B227" t="n">
-        <v>98.62710571289062</v>
+        <v>98.62709808349609</v>
       </c>
       <c r="C227" t="n">
         <v>103.4400024414062</v>
@@ -5677,7 +5677,7 @@
         <v>44154</v>
       </c>
       <c r="B228" t="n">
-        <v>97.15874481201172</v>
+        <v>97.15873718261719</v>
       </c>
       <c r="C228" t="n">
         <v>101.9000015258789</v>
@@ -5700,7 +5700,7 @@
         <v>44155</v>
       </c>
       <c r="B229" t="n">
-        <v>95.78574371337891</v>
+        <v>95.78575897216797</v>
       </c>
       <c r="C229" t="n">
         <v>100.4599990844727</v>
@@ -5723,7 +5723,7 @@
         <v>44158</v>
       </c>
       <c r="B230" t="n">
-        <v>95.80482482910156</v>
+        <v>95.80483245849609</v>
       </c>
       <c r="C230" t="n">
         <v>100.4800033569336</v>
@@ -5746,7 +5746,7 @@
         <v>44159</v>
       </c>
       <c r="B231" t="n">
-        <v>98.30291748046875</v>
+        <v>98.30292510986328</v>
       </c>
       <c r="C231" t="n">
         <v>103.0999984741211</v>
@@ -5769,7 +5769,7 @@
         <v>44160</v>
       </c>
       <c r="B232" t="n">
-        <v>98.31244659423828</v>
+        <v>98.31245422363281</v>
       </c>
       <c r="C232" t="n">
         <v>103.1100006103516</v>
@@ -5815,7 +5815,7 @@
         <v>44165</v>
       </c>
       <c r="B234" t="n">
-        <v>98.31244659423828</v>
+        <v>98.31245422363281</v>
       </c>
       <c r="C234" t="n">
         <v>103.1100006103516</v>
@@ -5838,7 +5838,7 @@
         <v>44166</v>
       </c>
       <c r="B235" t="n">
-        <v>97.43526458740234</v>
+        <v>97.43525695800781</v>
       </c>
       <c r="C235" t="n">
         <v>102.1900024414062</v>
@@ -5861,7 +5861,7 @@
         <v>44167</v>
       </c>
       <c r="B236" t="n">
-        <v>98.32199096679688</v>
+        <v>98.32199859619141</v>
       </c>
       <c r="C236" t="n">
         <v>103.120002746582</v>
@@ -5884,7 +5884,7 @@
         <v>44168</v>
       </c>
       <c r="B237" t="n">
-        <v>96.77736663818359</v>
+        <v>96.77737426757812</v>
       </c>
       <c r="C237" t="n">
         <v>101.5</v>
@@ -5907,7 +5907,7 @@
         <v>44169</v>
       </c>
       <c r="B238" t="n">
-        <v>98.18850708007812</v>
+        <v>98.18849945068359</v>
       </c>
       <c r="C238" t="n">
         <v>102.9800033569336</v>
@@ -5930,7 +5930,7 @@
         <v>44172</v>
       </c>
       <c r="B239" t="n">
-        <v>94.86088562011719</v>
+        <v>94.86087799072266</v>
       </c>
       <c r="C239" t="n">
         <v>99.48999786376953</v>
@@ -5999,7 +5999,7 @@
         <v>44175</v>
       </c>
       <c r="B242" t="n">
-        <v>94.74648284912109</v>
+        <v>94.74646759033203</v>
       </c>
       <c r="C242" t="n">
         <v>99.37000274658203</v>
@@ -6045,7 +6045,7 @@
         <v>44179</v>
       </c>
       <c r="B244" t="n">
-        <v>92.60116577148438</v>
+        <v>92.60115814208984</v>
       </c>
       <c r="C244" t="n">
         <v>97.12000274658203</v>
@@ -6068,7 +6068,7 @@
         <v>44180</v>
       </c>
       <c r="B245" t="n">
-        <v>94.42229461669922</v>
+        <v>94.42228698730469</v>
       </c>
       <c r="C245" t="n">
         <v>99.02999877929688</v>
@@ -6091,7 +6091,7 @@
         <v>44181</v>
       </c>
       <c r="B246" t="n">
-        <v>93.79299163818359</v>
+        <v>93.79299926757812</v>
       </c>
       <c r="C246" t="n">
         <v>98.37000274658203</v>
@@ -6137,7 +6137,7 @@
         <v>44183</v>
       </c>
       <c r="B248" t="n">
-        <v>94.02183532714844</v>
+        <v>94.02182769775391</v>
       </c>
       <c r="C248" t="n">
         <v>98.61000061035156</v>
@@ -6183,7 +6183,7 @@
         <v>44187</v>
       </c>
       <c r="B250" t="n">
-        <v>92.21977233886719</v>
+        <v>92.21976470947266</v>
       </c>
       <c r="C250" t="n">
         <v>96.72000122070312</v>
@@ -6229,7 +6229,7 @@
         <v>44189</v>
       </c>
       <c r="B252" t="n">
-        <v>92.4581298828125</v>
+        <v>92.45815277099609</v>
       </c>
       <c r="C252" t="n">
         <v>96.97000122070312</v>
@@ -6252,7 +6252,7 @@
         <v>44193</v>
       </c>
       <c r="B253" t="n">
-        <v>92.29606628417969</v>
+        <v>92.29605102539062</v>
       </c>
       <c r="C253" t="n">
         <v>96.80000305175781</v>
@@ -6275,7 +6275,7 @@
         <v>44194</v>
       </c>
       <c r="B254" t="n">
-        <v>92.60116577148438</v>
+        <v>92.60115814208984</v>
       </c>
       <c r="C254" t="n">
         <v>97.12000274658203</v>
@@ -6321,7 +6321,7 @@
         <v>44196</v>
       </c>
       <c r="B256" t="n">
-        <v>93.21138000488281</v>
+        <v>93.21137237548828</v>
       </c>
       <c r="C256" t="n">
         <v>97.76000213623047</v>
@@ -6344,7 +6344,7 @@
         <v>44200</v>
       </c>
       <c r="B257" t="n">
-        <v>92.00999450683594</v>
+        <v>92.010009765625</v>
       </c>
       <c r="C257" t="n">
         <v>96.5</v>
@@ -6367,7 +6367,7 @@
         <v>44201</v>
       </c>
       <c r="B258" t="n">
-        <v>93.21138000488281</v>
+        <v>93.21137237548828</v>
       </c>
       <c r="C258" t="n">
         <v>97.76000213623047</v>
@@ -6390,7 +6390,7 @@
         <v>44202</v>
       </c>
       <c r="B259" t="n">
-        <v>101.2300796508789</v>
+        <v>101.2300643920898</v>
       </c>
       <c r="C259" t="n">
         <v>106.1699981689453</v>
@@ -6413,7 +6413,7 @@
         <v>44203</v>
       </c>
       <c r="B260" t="n">
-        <v>105.0058135986328</v>
+        <v>105.0058288574219</v>
       </c>
       <c r="C260" t="n">
         <v>110.129997253418</v>
@@ -6459,7 +6459,7 @@
         <v>44207</v>
       </c>
       <c r="B262" t="n">
-        <v>102.3551712036133</v>
+        <v>102.3551559448242</v>
       </c>
       <c r="C262" t="n">
         <v>107.3499984741211</v>
@@ -6482,7 +6482,7 @@
         <v>44208</v>
       </c>
       <c r="B263" t="n">
-        <v>101.5637817382812</v>
+        <v>101.5638046264648</v>
       </c>
       <c r="C263" t="n">
         <v>106.5199966430664</v>
@@ -6528,7 +6528,7 @@
         <v>44210</v>
       </c>
       <c r="B265" t="n">
-        <v>100.724723815918</v>
+        <v>100.724739074707</v>
       </c>
       <c r="C265" t="n">
         <v>105.6399993896484</v>
@@ -6551,7 +6551,7 @@
         <v>44211</v>
       </c>
       <c r="B266" t="n">
-        <v>101.8307800292969</v>
+        <v>101.8307723999023</v>
       </c>
       <c r="C266" t="n">
         <v>106.8000030517578</v>
@@ -6574,7 +6574,7 @@
         <v>44215</v>
       </c>
       <c r="B267" t="n">
-        <v>98.68430328369141</v>
+        <v>98.68428802490234</v>
       </c>
       <c r="C267" t="n">
         <v>103.5</v>
@@ -6620,7 +6620,7 @@
         <v>44217</v>
       </c>
       <c r="B269" t="n">
-        <v>100.0287170410156</v>
+        <v>100.0287017822266</v>
       </c>
       <c r="C269" t="n">
         <v>104.9100036621094</v>
@@ -6666,7 +6666,7 @@
         <v>44221</v>
       </c>
       <c r="B271" t="n">
-        <v>101.8974914550781</v>
+        <v>101.8974990844727</v>
       </c>
       <c r="C271" t="n">
         <v>106.870002746582</v>
@@ -6689,7 +6689,7 @@
         <v>44222</v>
       </c>
       <c r="B272" t="n">
-        <v>103.7758331298828</v>
+        <v>103.7758483886719</v>
       </c>
       <c r="C272" t="n">
         <v>108.8399963378906</v>
@@ -6712,7 +6712,7 @@
         <v>44223</v>
       </c>
       <c r="B273" t="n">
-        <v>101.8688812255859</v>
+        <v>101.868896484375</v>
       </c>
       <c r="C273" t="n">
         <v>106.8399963378906</v>
@@ -6735,7 +6735,7 @@
         <v>44224</v>
       </c>
       <c r="B274" t="n">
-        <v>101.9260940551758</v>
+        <v>101.9261093139648</v>
       </c>
       <c r="C274" t="n">
         <v>106.9000015258789</v>
@@ -6758,7 +6758,7 @@
         <v>44225</v>
       </c>
       <c r="B275" t="n">
-        <v>99.35173034667969</v>
+        <v>99.35172271728516</v>
       </c>
       <c r="C275" t="n">
         <v>104.1999969482422</v>
@@ -6850,7 +6850,7 @@
         <v>44231</v>
       </c>
       <c r="B279" t="n">
-        <v>106.712532043457</v>
+        <v>106.7125244140625</v>
       </c>
       <c r="C279" t="n">
         <v>111.9199981689453</v>
@@ -6873,7 +6873,7 @@
         <v>44232</v>
       </c>
       <c r="B280" t="n">
-        <v>104.586296081543</v>
+        <v>104.5862884521484</v>
       </c>
       <c r="C280" t="n">
         <v>109.6900024414062</v>
@@ -6896,7 +6896,7 @@
         <v>44235</v>
       </c>
       <c r="B281" t="n">
-        <v>103.4421157836914</v>
+        <v>103.442138671875</v>
       </c>
       <c r="C281" t="n">
         <v>108.4899978637695</v>
@@ -6919,7 +6919,7 @@
         <v>44236</v>
       </c>
       <c r="B282" t="n">
-        <v>102.4314651489258</v>
+        <v>102.4314575195312</v>
       </c>
       <c r="C282" t="n">
         <v>107.4300003051758</v>
@@ -6942,7 +6942,7 @@
         <v>44237</v>
       </c>
       <c r="B283" t="n">
-        <v>101.3254089355469</v>
+        <v>101.3254318237305</v>
       </c>
       <c r="C283" t="n">
         <v>106.2699966430664</v>
@@ -6965,7 +6965,7 @@
         <v>44238</v>
       </c>
       <c r="B284" t="n">
-        <v>100.0807342529297</v>
+        <v>100.0807647705078</v>
       </c>
       <c r="C284" t="n">
         <v>104.5299987792969</v>
@@ -6988,7 +6988,7 @@
         <v>44239</v>
       </c>
       <c r="B285" t="n">
-        <v>100.7030715942383</v>
+        <v>100.7030868530273</v>
       </c>
       <c r="C285" t="n">
         <v>105.1800003051758</v>
@@ -7034,7 +7034,7 @@
         <v>44244</v>
       </c>
       <c r="B287" t="n">
-        <v>100.8275451660156</v>
+        <v>100.8275527954102</v>
       </c>
       <c r="C287" t="n">
         <v>105.3099975585938</v>
@@ -7080,7 +7080,7 @@
         <v>44246</v>
       </c>
       <c r="B289" t="n">
-        <v>101.3637084960938</v>
+        <v>101.3637313842773</v>
       </c>
       <c r="C289" t="n">
         <v>105.870002746582</v>
@@ -7103,7 +7103,7 @@
         <v>44249</v>
       </c>
       <c r="B290" t="n">
-        <v>101.6030807495117</v>
+        <v>101.6030654907227</v>
       </c>
       <c r="C290" t="n">
         <v>106.120002746582</v>
@@ -7126,7 +7126,7 @@
         <v>44250</v>
       </c>
       <c r="B291" t="n">
-        <v>101.9381713867188</v>
+        <v>101.9381637573242</v>
       </c>
       <c r="C291" t="n">
         <v>106.4700012207031</v>
@@ -7172,7 +7172,7 @@
         <v>44252</v>
       </c>
       <c r="B293" t="n">
-        <v>98.47227478027344</v>
+        <v>98.47225952148438</v>
       </c>
       <c r="C293" t="n">
         <v>102.8499984741211</v>
@@ -7195,7 +7195,7 @@
         <v>44253</v>
       </c>
       <c r="B294" t="n">
-        <v>96.91164398193359</v>
+        <v>96.91162109375</v>
       </c>
       <c r="C294" t="n">
         <v>101.2200012207031</v>
@@ -7218,7 +7218,7 @@
         <v>44256</v>
       </c>
       <c r="B295" t="n">
-        <v>98.77864074707031</v>
+        <v>98.77864837646484</v>
       </c>
       <c r="C295" t="n">
         <v>103.1699981689453</v>
@@ -7241,7 +7241,7 @@
         <v>44257</v>
       </c>
       <c r="B296" t="n">
-        <v>99.81267547607422</v>
+        <v>99.81266021728516</v>
       </c>
       <c r="C296" t="n">
         <v>104.25</v>
@@ -7264,7 +7264,7 @@
         <v>44258</v>
       </c>
       <c r="B297" t="n">
-        <v>98.94139099121094</v>
+        <v>98.94141387939453</v>
       </c>
       <c r="C297" t="n">
         <v>103.3399963378906</v>
@@ -7287,7 +7287,7 @@
         <v>44259</v>
       </c>
       <c r="B298" t="n">
-        <v>98.60631561279297</v>
+        <v>98.60630035400391</v>
       </c>
       <c r="C298" t="n">
         <v>102.9899978637695</v>
@@ -7333,7 +7333,7 @@
         <v>44263</v>
       </c>
       <c r="B300" t="n">
-        <v>102.9339218139648</v>
+        <v>102.9339141845703</v>
       </c>
       <c r="C300" t="n">
         <v>107.5100021362305</v>
@@ -7356,7 +7356,7 @@
         <v>44264</v>
       </c>
       <c r="B301" t="n">
-        <v>105.4423828125</v>
+        <v>105.4423980712891</v>
       </c>
       <c r="C301" t="n">
         <v>110.129997253418</v>
@@ -7402,7 +7402,7 @@
         <v>44266</v>
       </c>
       <c r="B303" t="n">
-        <v>105.1838989257812</v>
+        <v>105.1838836669922</v>
       </c>
       <c r="C303" t="n">
         <v>109.8600006103516</v>
@@ -7448,7 +7448,7 @@
         <v>44270</v>
       </c>
       <c r="B305" t="n">
-        <v>109.0136184692383</v>
+        <v>109.0136337280273</v>
       </c>
       <c r="C305" t="n">
         <v>113.8600006103516</v>
@@ -7471,7 +7471,7 @@
         <v>44271</v>
       </c>
       <c r="B306" t="n">
-        <v>108.0561981201172</v>
+        <v>108.0562133789062</v>
       </c>
       <c r="C306" t="n">
         <v>112.8600006103516</v>
@@ -7494,7 +7494,7 @@
         <v>44272</v>
       </c>
       <c r="B307" t="n">
-        <v>109.1476593017578</v>
+        <v>109.1476821899414</v>
       </c>
       <c r="C307" t="n">
         <v>114</v>
@@ -7540,7 +7540,7 @@
         <v>44274</v>
       </c>
       <c r="B309" t="n">
-        <v>110.9859390258789</v>
+        <v>110.985954284668</v>
       </c>
       <c r="C309" t="n">
         <v>115.9199981689453</v>
@@ -7563,7 +7563,7 @@
         <v>44277</v>
       </c>
       <c r="B310" t="n">
-        <v>111.3976440429688</v>
+        <v>111.3976364135742</v>
       </c>
       <c r="C310" t="n">
         <v>116.3499984741211</v>
@@ -7609,7 +7609,7 @@
         <v>44279</v>
       </c>
       <c r="B312" t="n">
-        <v>110.4593658447266</v>
+        <v>110.459358215332</v>
       </c>
       <c r="C312" t="n">
         <v>115.370002746582</v>
@@ -7632,7 +7632,7 @@
         <v>44280</v>
       </c>
       <c r="B313" t="n">
-        <v>112.3454895019531</v>
+        <v>112.3454971313477</v>
       </c>
       <c r="C313" t="n">
         <v>117.3399963378906</v>
@@ -7655,7 +7655,7 @@
         <v>44281</v>
       </c>
       <c r="B314" t="n">
-        <v>113.6763458251953</v>
+        <v>113.6763305664062</v>
       </c>
       <c r="C314" t="n">
         <v>118.7300033569336</v>
@@ -7678,7 +7678,7 @@
         <v>44284</v>
       </c>
       <c r="B315" t="n">
-        <v>113.9827270507812</v>
+        <v>113.9827194213867</v>
       </c>
       <c r="C315" t="n">
         <v>119.0500030517578</v>
@@ -7701,7 +7701,7 @@
         <v>44285</v>
       </c>
       <c r="B316" t="n">
-        <v>113.992301940918</v>
+        <v>113.9922943115234</v>
       </c>
       <c r="C316" t="n">
         <v>119.0599975585938</v>
@@ -7724,7 +7724,7 @@
         <v>44286</v>
       </c>
       <c r="B317" t="n">
-        <v>113.04443359375</v>
+        <v>113.0444183349609</v>
       </c>
       <c r="C317" t="n">
         <v>118.0699996948242</v>
@@ -7747,7 +7747,7 @@
         <v>44287</v>
       </c>
       <c r="B318" t="n">
-        <v>111.9146575927734</v>
+        <v>111.9146499633789</v>
       </c>
       <c r="C318" t="n">
         <v>116.8899993896484</v>
@@ -7816,7 +7816,7 @@
         <v>44293</v>
       </c>
       <c r="B321" t="n">
-        <v>111.5221176147461</v>
+        <v>111.522102355957</v>
       </c>
       <c r="C321" t="n">
         <v>116.4800033569336</v>
@@ -7862,7 +7862,7 @@
         <v>44295</v>
       </c>
       <c r="B323" t="n">
-        <v>111.8380584716797</v>
+        <v>111.8380737304688</v>
       </c>
       <c r="C323" t="n">
         <v>116.8099975585938</v>
@@ -7885,7 +7885,7 @@
         <v>44298</v>
       </c>
       <c r="B324" t="n">
-        <v>112.536994934082</v>
+        <v>112.5370025634766</v>
       </c>
       <c r="C324" t="n">
         <v>117.5400009155273</v>
@@ -7931,7 +7931,7 @@
         <v>44300</v>
       </c>
       <c r="B326" t="n">
-        <v>112.9774017333984</v>
+        <v>112.977424621582</v>
       </c>
       <c r="C326" t="n">
         <v>118</v>
@@ -7954,7 +7954,7 @@
         <v>44301</v>
       </c>
       <c r="B327" t="n">
-        <v>113.97314453125</v>
+        <v>113.9731597900391</v>
       </c>
       <c r="C327" t="n">
         <v>119.0400009155273</v>
@@ -7977,7 +7977,7 @@
         <v>44302</v>
       </c>
       <c r="B328" t="n">
-        <v>114.5954818725586</v>
+        <v>114.5954895019531</v>
       </c>
       <c r="C328" t="n">
         <v>119.6900024414062</v>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="B329" t="n">
-        <v>114.4135665893555</v>
+        <v>114.4135589599609</v>
       </c>
       <c r="C329" t="n">
         <v>119.5</v>
@@ -8069,7 +8069,7 @@
         <v>44308</v>
       </c>
       <c r="B332" t="n">
-        <v>115.7444076538086</v>
+        <v>115.7444000244141</v>
       </c>
       <c r="C332" t="n">
         <v>120.8899993896484</v>
@@ -8092,7 +8092,7 @@
         <v>44309</v>
       </c>
       <c r="B333" t="n">
-        <v>116.4720458984375</v>
+        <v>116.4720611572266</v>
       </c>
       <c r="C333" t="n">
         <v>121.6500015258789</v>
@@ -8115,7 +8115,7 @@
         <v>44312</v>
       </c>
       <c r="B334" t="n">
-        <v>114.6337814331055</v>
+        <v>114.6337738037109</v>
       </c>
       <c r="C334" t="n">
         <v>119.7300033569336</v>
@@ -8138,7 +8138,7 @@
         <v>44313</v>
       </c>
       <c r="B335" t="n">
-        <v>113.7433700561523</v>
+        <v>113.7433624267578</v>
       </c>
       <c r="C335" t="n">
         <v>118.8000030517578</v>
@@ -8161,7 +8161,7 @@
         <v>44314</v>
       </c>
       <c r="B336" t="n">
-        <v>114.2508087158203</v>
+        <v>114.2508010864258</v>
       </c>
       <c r="C336" t="n">
         <v>119.3300018310547</v>
@@ -8184,7 +8184,7 @@
         <v>44315</v>
       </c>
       <c r="B337" t="n">
-        <v>116.0890731811523</v>
+        <v>116.0890808105469</v>
       </c>
       <c r="C337" t="n">
         <v>121.25</v>
@@ -8207,7 +8207,7 @@
         <v>44316</v>
       </c>
       <c r="B338" t="n">
-        <v>115.6582336425781</v>
+        <v>115.6582412719727</v>
       </c>
       <c r="C338" t="n">
         <v>120.8000030517578</v>
@@ -8230,7 +8230,7 @@
         <v>44319</v>
       </c>
       <c r="B339" t="n">
-        <v>118.5209655761719</v>
+        <v>118.5209732055664</v>
       </c>
       <c r="C339" t="n">
         <v>123.7900009155273</v>
@@ -8253,7 +8253,7 @@
         <v>44320</v>
       </c>
       <c r="B340" t="n">
-        <v>120.493278503418</v>
+        <v>120.4932861328125</v>
       </c>
       <c r="C340" t="n">
         <v>125.8499984741211</v>
@@ -8276,7 +8276,7 @@
         <v>44321</v>
       </c>
       <c r="B341" t="n">
-        <v>113.7625122070312</v>
+        <v>113.7625045776367</v>
       </c>
       <c r="C341" t="n">
         <v>118.8199996948242</v>
@@ -8322,7 +8322,7 @@
         <v>44323</v>
       </c>
       <c r="B343" t="n">
-        <v>115.715690612793</v>
+        <v>115.7156753540039</v>
       </c>
       <c r="C343" t="n">
         <v>120.8600006103516</v>
@@ -8345,7 +8345,7 @@
         <v>44326</v>
       </c>
       <c r="B344" t="n">
-        <v>118.0039443969727</v>
+        <v>118.0039367675781</v>
       </c>
       <c r="C344" t="n">
         <v>123.25</v>
@@ -8368,7 +8368,7 @@
         <v>44327</v>
       </c>
       <c r="B345" t="n">
-        <v>114.9880142211914</v>
+        <v>114.9880218505859</v>
       </c>
       <c r="C345" t="n">
         <v>120.0999984741211</v>
@@ -8414,7 +8414,7 @@
         <v>44329</v>
       </c>
       <c r="B347" t="n">
-        <v>114.3752670288086</v>
+        <v>114.3752517700195</v>
       </c>
       <c r="C347" t="n">
         <v>119.4599990844727</v>
@@ -8437,7 +8437,7 @@
         <v>44330</v>
       </c>
       <c r="B348" t="n">
-        <v>111.9728393554688</v>
+        <v>111.9728317260742</v>
       </c>
       <c r="C348" t="n">
         <v>116.5199966430664</v>
@@ -8460,7 +8460,7 @@
         <v>44333</v>
       </c>
       <c r="B349" t="n">
-        <v>113.5007858276367</v>
+        <v>113.5007934570312</v>
       </c>
       <c r="C349" t="n">
         <v>118.1100006103516</v>
@@ -8483,7 +8483,7 @@
         <v>44334</v>
       </c>
       <c r="B350" t="n">
-        <v>112.3860549926758</v>
+        <v>112.3860473632812</v>
       </c>
       <c r="C350" t="n">
         <v>116.9499969482422</v>
@@ -8506,7 +8506,7 @@
         <v>44335</v>
       </c>
       <c r="B351" t="n">
-        <v>114.1061935424805</v>
+        <v>114.1061859130859</v>
       </c>
       <c r="C351" t="n">
         <v>118.7399978637695</v>
@@ -8552,7 +8552,7 @@
         <v>44337</v>
       </c>
       <c r="B353" t="n">
-        <v>115.38427734375</v>
+        <v>115.3843002319336</v>
       </c>
       <c r="C353" t="n">
         <v>120.0699996948242</v>
@@ -8575,7 +8575,7 @@
         <v>44340</v>
       </c>
       <c r="B354" t="n">
-        <v>113.8947982788086</v>
+        <v>113.8947677612305</v>
       </c>
       <c r="C354" t="n">
         <v>118.5199966430664</v>
@@ -8644,7 +8644,7 @@
         <v>44343</v>
       </c>
       <c r="B357" t="n">
-        <v>110.5217666625977</v>
+        <v>110.5217514038086</v>
       </c>
       <c r="C357" t="n">
         <v>115.0100021362305</v>
@@ -8667,7 +8667,7 @@
         <v>44344</v>
       </c>
       <c r="B358" t="n">
-        <v>110.2623062133789</v>
+        <v>110.2622985839844</v>
       </c>
       <c r="C358" t="n">
         <v>114.7399978637695</v>
@@ -8690,7 +8690,7 @@
         <v>44348</v>
       </c>
       <c r="B359" t="n">
-        <v>109.8586883544922</v>
+        <v>109.8587036132812</v>
       </c>
       <c r="C359" t="n">
         <v>114.3199996948242</v>
@@ -8736,7 +8736,7 @@
         <v>44350</v>
       </c>
       <c r="B361" t="n">
-        <v>112.2419052124023</v>
+        <v>112.2419128417969</v>
       </c>
       <c r="C361" t="n">
         <v>116.8000030517578</v>
@@ -8759,7 +8759,7 @@
         <v>44351</v>
       </c>
       <c r="B362" t="n">
-        <v>112.3572235107422</v>
+        <v>112.3572082519531</v>
       </c>
       <c r="C362" t="n">
         <v>116.9199981689453</v>
@@ -8782,7 +8782,7 @@
         <v>44354</v>
       </c>
       <c r="B363" t="n">
-        <v>113.6449356079102</v>
+        <v>113.6449279785156</v>
       </c>
       <c r="C363" t="n">
         <v>118.2600021362305</v>
@@ -8805,7 +8805,7 @@
         <v>44355</v>
       </c>
       <c r="B364" t="n">
-        <v>113.2989883422852</v>
+        <v>113.2989730834961</v>
       </c>
       <c r="C364" t="n">
         <v>117.9000015258789</v>
@@ -8851,7 +8851,7 @@
         <v>44357</v>
       </c>
       <c r="B366" t="n">
-        <v>116.2203521728516</v>
+        <v>116.2203598022461</v>
       </c>
       <c r="C366" t="n">
         <v>120.9400024414062</v>
@@ -8874,7 +8874,7 @@
         <v>44358</v>
       </c>
       <c r="B367" t="n">
-        <v>115.1632537841797</v>
+        <v>115.1632614135742</v>
       </c>
       <c r="C367" t="n">
         <v>119.8399963378906</v>
@@ -8920,7 +8920,7 @@
         <v>44362</v>
       </c>
       <c r="B369" t="n">
-        <v>114.3848876953125</v>
+        <v>114.384895324707</v>
       </c>
       <c r="C369" t="n">
         <v>119.0299987792969</v>
@@ -8943,7 +8943,7 @@
         <v>44363</v>
       </c>
       <c r="B370" t="n">
-        <v>113.7410354614258</v>
+        <v>113.7410430908203</v>
       </c>
       <c r="C370" t="n">
         <v>118.3600006103516</v>
@@ -8966,7 +8966,7 @@
         <v>44364</v>
       </c>
       <c r="B371" t="n">
-        <v>113.5007858276367</v>
+        <v>113.5007934570312</v>
       </c>
       <c r="C371" t="n">
         <v>118.1100006103516</v>
@@ -8989,7 +8989,7 @@
         <v>44365</v>
       </c>
       <c r="B372" t="n">
-        <v>109.9547882080078</v>
+        <v>109.9547729492188</v>
       </c>
       <c r="C372" t="n">
         <v>114.4199981689453</v>
@@ -9012,7 +9012,7 @@
         <v>44368</v>
       </c>
       <c r="B373" t="n">
-        <v>112.0689315795898</v>
+        <v>112.0689392089844</v>
       </c>
       <c r="C373" t="n">
         <v>116.620002746582</v>
@@ -9035,7 +9035,7 @@
         <v>44369</v>
       </c>
       <c r="B374" t="n">
-        <v>112.1361999511719</v>
+        <v>112.1361923217773</v>
       </c>
       <c r="C374" t="n">
         <v>116.6900024414062</v>
@@ -9058,7 +9058,7 @@
         <v>44370</v>
       </c>
       <c r="B375" t="n">
-        <v>111.2905426025391</v>
+        <v>111.2905578613281</v>
       </c>
       <c r="C375" t="n">
         <v>115.8099975585938</v>
@@ -9081,7 +9081,7 @@
         <v>44371</v>
       </c>
       <c r="B376" t="n">
-        <v>110.9734191894531</v>
+        <v>110.9734115600586</v>
       </c>
       <c r="C376" t="n">
         <v>115.4800033569336</v>
@@ -9104,7 +9104,7 @@
         <v>44372</v>
       </c>
       <c r="B377" t="n">
-        <v>111.7998504638672</v>
+        <v>111.7998580932617</v>
       </c>
       <c r="C377" t="n">
         <v>116.3399963378906</v>
@@ -9127,7 +9127,7 @@
         <v>44375</v>
       </c>
       <c r="B378" t="n">
-        <v>110.2623062133789</v>
+        <v>110.2622985839844</v>
       </c>
       <c r="C378" t="n">
         <v>114.7399978637695</v>
@@ -9150,7 +9150,7 @@
         <v>44376</v>
       </c>
       <c r="B379" t="n">
-        <v>109.9740142822266</v>
+        <v>109.974006652832</v>
       </c>
       <c r="C379" t="n">
         <v>114.4400024414062</v>
@@ -9196,7 +9196,7 @@
         <v>44378</v>
       </c>
       <c r="B381" t="n">
-        <v>111.8959655761719</v>
+        <v>111.8959426879883</v>
       </c>
       <c r="C381" t="n">
         <v>116.4400024414062</v>
@@ -9219,7 +9219,7 @@
         <v>44379</v>
       </c>
       <c r="B382" t="n">
-        <v>112.0689315795898</v>
+        <v>112.0689392089844</v>
       </c>
       <c r="C382" t="n">
         <v>116.620002746582</v>
@@ -9242,7 +9242,7 @@
         <v>44383</v>
       </c>
       <c r="B383" t="n">
-        <v>110.9157638549805</v>
+        <v>110.9157485961914</v>
       </c>
       <c r="C383" t="n">
         <v>115.4199981689453</v>
@@ -9265,7 +9265,7 @@
         <v>44384</v>
       </c>
       <c r="B384" t="n">
-        <v>110.5506057739258</v>
+        <v>110.5505981445312</v>
       </c>
       <c r="C384" t="n">
         <v>115.0400009155273</v>
@@ -9288,7 +9288,7 @@
         <v>44385</v>
       </c>
       <c r="B385" t="n">
-        <v>109.9740142822266</v>
+        <v>109.974006652832</v>
       </c>
       <c r="C385" t="n">
         <v>114.4400024414062</v>
@@ -9334,7 +9334,7 @@
         <v>44389</v>
       </c>
       <c r="B387" t="n">
-        <v>111.0406875610352</v>
+        <v>111.0406799316406</v>
       </c>
       <c r="C387" t="n">
         <v>115.5500030517578</v>
@@ -9357,7 +9357,7 @@
         <v>44390</v>
       </c>
       <c r="B388" t="n">
-        <v>109.7529983520508</v>
+        <v>109.7529830932617</v>
       </c>
       <c r="C388" t="n">
         <v>114.2099990844727</v>
@@ -9380,7 +9380,7 @@
         <v>44391</v>
       </c>
       <c r="B389" t="n">
-        <v>109.1283416748047</v>
+        <v>109.1283340454102</v>
       </c>
       <c r="C389" t="n">
         <v>113.5599975585938</v>
@@ -9449,7 +9449,7 @@
         <v>44396</v>
       </c>
       <c r="B392" t="n">
-        <v>108.2058029174805</v>
+        <v>108.2058181762695</v>
       </c>
       <c r="C392" t="n">
         <v>112.5999984741211</v>
@@ -9472,7 +9472,7 @@
         <v>44397</v>
       </c>
       <c r="B393" t="n">
-        <v>111.9440078735352</v>
+        <v>111.9440002441406</v>
       </c>
       <c r="C393" t="n">
         <v>116.4899978637695</v>
@@ -9495,7 +9495,7 @@
         <v>44398</v>
       </c>
       <c r="B394" t="n">
-        <v>113.6064987182617</v>
+        <v>113.6064910888672</v>
       </c>
       <c r="C394" t="n">
         <v>118.2200012207031</v>
@@ -9518,7 +9518,7 @@
         <v>44399</v>
       </c>
       <c r="B395" t="n">
-        <v>115.1632537841797</v>
+        <v>115.1632614135742</v>
       </c>
       <c r="C395" t="n">
         <v>119.8399963378906</v>
@@ -9541,7 +9541,7 @@
         <v>44400</v>
       </c>
       <c r="B396" t="n">
-        <v>116.5759201049805</v>
+        <v>116.5759048461914</v>
       </c>
       <c r="C396" t="n">
         <v>121.3099975585938</v>
@@ -9564,7 +9564,7 @@
         <v>44403</v>
       </c>
       <c r="B397" t="n">
-        <v>116.0762100219727</v>
+        <v>116.0762023925781</v>
       </c>
       <c r="C397" t="n">
         <v>120.7900009155273</v>
@@ -9587,7 +9587,7 @@
         <v>44404</v>
       </c>
       <c r="B398" t="n">
-        <v>116.6720199584961</v>
+        <v>116.672004699707</v>
       </c>
       <c r="C398" t="n">
         <v>121.4100036621094</v>
@@ -9633,7 +9633,7 @@
         <v>44406</v>
       </c>
       <c r="B400" t="n">
-        <v>117.9212646484375</v>
+        <v>117.921272277832</v>
       </c>
       <c r="C400" t="n">
         <v>122.7099990844727</v>
@@ -9679,7 +9679,7 @@
         <v>44410</v>
       </c>
       <c r="B402" t="n">
-        <v>117.9405059814453</v>
+        <v>117.9404983520508</v>
       </c>
       <c r="C402" t="n">
         <v>122.7300033569336</v>
@@ -9702,7 +9702,7 @@
         <v>44411</v>
       </c>
       <c r="B403" t="n">
-        <v>118.8822402954102</v>
+        <v>118.8822479248047</v>
       </c>
       <c r="C403" t="n">
         <v>123.7099990844727</v>
@@ -9725,7 +9725,7 @@
         <v>44412</v>
       </c>
       <c r="B404" t="n">
-        <v>120.6504364013672</v>
+        <v>120.6504516601562</v>
       </c>
       <c r="C404" t="n">
         <v>125.5500030517578</v>
@@ -9748,7 +9748,7 @@
         <v>44413</v>
       </c>
       <c r="B405" t="n">
-        <v>117.1332702636719</v>
+        <v>117.1332626342773</v>
       </c>
       <c r="C405" t="n">
         <v>121.8899993896484</v>
@@ -9771,7 +9771,7 @@
         <v>44414</v>
       </c>
       <c r="B406" t="n">
-        <v>115.9320449829102</v>
+        <v>115.9320526123047</v>
       </c>
       <c r="C406" t="n">
         <v>120.6399993896484</v>
@@ -9794,7 +9794,7 @@
         <v>44417</v>
       </c>
       <c r="B407" t="n">
-        <v>115.5380477905273</v>
+        <v>115.5380554199219</v>
       </c>
       <c r="C407" t="n">
         <v>120.2300033569336</v>
@@ -9909,7 +9909,7 @@
         <v>44424</v>
       </c>
       <c r="B412" t="n">
-        <v>115.8087844848633</v>
+        <v>115.8087921142578</v>
       </c>
       <c r="C412" t="n">
         <v>120.0699996948242</v>
@@ -9955,7 +9955,7 @@
         <v>44426</v>
       </c>
       <c r="B414" t="n">
-        <v>114.3716659545898</v>
+        <v>114.3716735839844</v>
       </c>
       <c r="C414" t="n">
         <v>118.5800018310547</v>
@@ -10047,7 +10047,7 @@
         <v>44432</v>
       </c>
       <c r="B418" t="n">
-        <v>113.812255859375</v>
+        <v>113.8122634887695</v>
       </c>
       <c r="C418" t="n">
         <v>118</v>
@@ -10070,7 +10070,7 @@
         <v>44433</v>
       </c>
       <c r="B419" t="n">
-        <v>113.8990478515625</v>
+        <v>113.8990631103516</v>
       </c>
       <c r="C419" t="n">
         <v>118.0899963378906</v>
@@ -10116,7 +10116,7 @@
         <v>44435</v>
       </c>
       <c r="B421" t="n">
-        <v>115.6351776123047</v>
+        <v>115.6351547241211</v>
       </c>
       <c r="C421" t="n">
         <v>119.8899993896484</v>
@@ -10162,7 +10162,7 @@
         <v>44439</v>
       </c>
       <c r="B423" t="n">
-        <v>117.8728256225586</v>
+        <v>117.8728408813477</v>
       </c>
       <c r="C423" t="n">
         <v>122.2099990844727</v>
@@ -10185,7 +10185,7 @@
         <v>44440</v>
       </c>
       <c r="B424" t="n">
-        <v>118.3261566162109</v>
+        <v>118.326171875</v>
       </c>
       <c r="C424" t="n">
         <v>122.6800003051758</v>
@@ -10208,7 +10208,7 @@
         <v>44441</v>
       </c>
       <c r="B425" t="n">
-        <v>120.5445404052734</v>
+        <v>120.5445327758789</v>
       </c>
       <c r="C425" t="n">
         <v>124.9800033569336</v>
@@ -10231,7 +10231,7 @@
         <v>44442</v>
       </c>
       <c r="B426" t="n">
-        <v>120.698860168457</v>
+        <v>120.698844909668</v>
       </c>
       <c r="C426" t="n">
         <v>125.1399993896484</v>
@@ -10254,7 +10254,7 @@
         <v>44446</v>
       </c>
       <c r="B427" t="n">
-        <v>119.8018569946289</v>
+        <v>119.8018798828125</v>
       </c>
       <c r="C427" t="n">
         <v>124.2099990844727</v>
@@ -10277,7 +10277,7 @@
         <v>44447</v>
       </c>
       <c r="B428" t="n">
-        <v>119.898323059082</v>
+        <v>119.898307800293</v>
       </c>
       <c r="C428" t="n">
         <v>124.3099975585938</v>
@@ -10300,7 +10300,7 @@
         <v>44448</v>
       </c>
       <c r="B429" t="n">
-        <v>119.213493347168</v>
+        <v>119.213508605957</v>
       </c>
       <c r="C429" t="n">
         <v>123.5999984741211</v>
@@ -10323,7 +10323,7 @@
         <v>44449</v>
       </c>
       <c r="B430" t="n">
-        <v>118.4515533447266</v>
+        <v>118.451530456543</v>
       </c>
       <c r="C430" t="n">
         <v>122.8099975585938</v>
@@ -10392,7 +10392,7 @@
         <v>44454</v>
       </c>
       <c r="B433" t="n">
-        <v>121.3354339599609</v>
+        <v>121.3354263305664</v>
       </c>
       <c r="C433" t="n">
         <v>125.8000030517578</v>
@@ -10415,7 +10415,7 @@
         <v>44455</v>
       </c>
       <c r="B434" t="n">
-        <v>119.8211517333984</v>
+        <v>119.821159362793</v>
       </c>
       <c r="C434" t="n">
         <v>124.2300033569336</v>
@@ -10438,7 +10438,7 @@
         <v>44456</v>
       </c>
       <c r="B435" t="n">
-        <v>119.0881423950195</v>
+        <v>119.088134765625</v>
       </c>
       <c r="C435" t="n">
         <v>123.4700012207031</v>
@@ -10461,7 +10461,7 @@
         <v>44459</v>
       </c>
       <c r="B436" t="n">
-        <v>117.641357421875</v>
+        <v>117.6413650512695</v>
       </c>
       <c r="C436" t="n">
         <v>121.9700012207031</v>
@@ -10484,7 +10484,7 @@
         <v>44460</v>
       </c>
       <c r="B437" t="n">
-        <v>117.1880340576172</v>
+        <v>117.1880493164062</v>
       </c>
       <c r="C437" t="n">
         <v>121.5</v>
@@ -10507,7 +10507,7 @@
         <v>44461</v>
       </c>
       <c r="B438" t="n">
-        <v>117.7570953369141</v>
+        <v>117.7571105957031</v>
       </c>
       <c r="C438" t="n">
         <v>122.0899963378906</v>
@@ -10576,7 +10576,7 @@
         <v>44466</v>
       </c>
       <c r="B441" t="n">
-        <v>118.2779312133789</v>
+        <v>118.2779159545898</v>
       </c>
       <c r="C441" t="n">
         <v>122.629997253418</v>
@@ -10622,7 +10622,7 @@
         <v>44468</v>
       </c>
       <c r="B443" t="n">
-        <v>118.1525497436523</v>
+        <v>118.1525573730469</v>
       </c>
       <c r="C443" t="n">
         <v>122.5</v>
@@ -10645,7 +10645,7 @@
         <v>44469</v>
       </c>
       <c r="B444" t="n">
-        <v>115.2107925415039</v>
+        <v>115.2107849121094</v>
       </c>
       <c r="C444" t="n">
         <v>119.4499969482422</v>
@@ -10668,7 +10668,7 @@
         <v>44470</v>
       </c>
       <c r="B445" t="n">
-        <v>115.5580291748047</v>
+        <v>115.5580062866211</v>
       </c>
       <c r="C445" t="n">
         <v>119.8099975585938</v>
@@ -10691,7 +10691,7 @@
         <v>44473</v>
       </c>
       <c r="B446" t="n">
-        <v>114.1305389404297</v>
+        <v>114.1305465698242</v>
       </c>
       <c r="C446" t="n">
         <v>118.3300018310547</v>
@@ -10714,7 +10714,7 @@
         <v>44474</v>
       </c>
       <c r="B447" t="n">
-        <v>114.4005889892578</v>
+        <v>114.4005966186523</v>
       </c>
       <c r="C447" t="n">
         <v>118.6100006103516</v>
@@ -10737,7 +10737,7 @@
         <v>44475</v>
       </c>
       <c r="B448" t="n">
-        <v>112.7512969970703</v>
+        <v>112.7512817382812</v>
       </c>
       <c r="C448" t="n">
         <v>116.9000015258789</v>
@@ -10760,7 +10760,7 @@
         <v>44476</v>
       </c>
       <c r="B449" t="n">
-        <v>114.3620223999023</v>
+        <v>114.3620300292969</v>
       </c>
       <c r="C449" t="n">
         <v>118.5699996948242</v>
@@ -10783,7 +10783,7 @@
         <v>44477</v>
       </c>
       <c r="B450" t="n">
-        <v>115.1336288452148</v>
+        <v>115.1336364746094</v>
       </c>
       <c r="C450" t="n">
         <v>119.370002746582</v>
@@ -10806,7 +10806,7 @@
         <v>44480</v>
       </c>
       <c r="B451" t="n">
-        <v>118.0560989379883</v>
+        <v>118.0561141967773</v>
       </c>
       <c r="C451" t="n">
         <v>122.4000015258789</v>
@@ -10898,7 +10898,7 @@
         <v>44484</v>
       </c>
       <c r="B455" t="n">
-        <v>115.6062469482422</v>
+        <v>115.6062316894531</v>
       </c>
       <c r="C455" t="n">
         <v>119.8600006103516</v>
@@ -10921,7 +10921,7 @@
         <v>44487</v>
       </c>
       <c r="B456" t="n">
-        <v>114.1787567138672</v>
+        <v>114.1787643432617</v>
       </c>
       <c r="C456" t="n">
         <v>118.379997253418</v>
@@ -10944,7 +10944,7 @@
         <v>44488</v>
       </c>
       <c r="B457" t="n">
-        <v>115.5869293212891</v>
+        <v>115.5869369506836</v>
       </c>
       <c r="C457" t="n">
         <v>119.8399963378906</v>
@@ -10990,7 +10990,7 @@
         <v>44490</v>
       </c>
       <c r="B459" t="n">
-        <v>118.355094909668</v>
+        <v>118.3551025390625</v>
       </c>
       <c r="C459" t="n">
         <v>122.7099990844727</v>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="B460" t="n">
-        <v>118.9434356689453</v>
+        <v>118.9434509277344</v>
       </c>
       <c r="C460" t="n">
         <v>123.3199996948242</v>
@@ -11036,7 +11036,7 @@
         <v>44494</v>
       </c>
       <c r="B461" t="n">
-        <v>118.2489929199219</v>
+        <v>118.2489852905273</v>
       </c>
       <c r="C461" t="n">
         <v>122.5999984741211</v>
@@ -11059,7 +11059,7 @@
         <v>44495</v>
       </c>
       <c r="B462" t="n">
-        <v>118.5962142944336</v>
+        <v>118.5962295532227</v>
       </c>
       <c r="C462" t="n">
         <v>122.9599990844727</v>
@@ -11082,7 +11082,7 @@
         <v>44496</v>
       </c>
       <c r="B463" t="n">
-        <v>115.3072509765625</v>
+        <v>115.307243347168</v>
       </c>
       <c r="C463" t="n">
         <v>119.5500030517578</v>
@@ -11105,7 +11105,7 @@
         <v>44497</v>
       </c>
       <c r="B464" t="n">
-        <v>116.4164199829102</v>
+        <v>116.4164352416992</v>
       </c>
       <c r="C464" t="n">
         <v>120.6999969482422</v>
@@ -11128,7 +11128,7 @@
         <v>44498</v>
       </c>
       <c r="B465" t="n">
-        <v>117.6895904541016</v>
+        <v>117.6895751953125</v>
       </c>
       <c r="C465" t="n">
         <v>122.0199966430664</v>
@@ -11151,7 +11151,7 @@
         <v>44501</v>
       </c>
       <c r="B466" t="n">
-        <v>118.4515533447266</v>
+        <v>118.451530456543</v>
       </c>
       <c r="C466" t="n">
         <v>122.8099975585938</v>
@@ -11220,7 +11220,7 @@
         <v>44504</v>
       </c>
       <c r="B469" t="n">
-        <v>122.2806625366211</v>
+        <v>122.280647277832</v>
       </c>
       <c r="C469" t="n">
         <v>126.7799987792969</v>
@@ -11289,7 +11289,7 @@
         <v>44509</v>
       </c>
       <c r="B472" t="n">
-        <v>120.2455215454102</v>
+        <v>120.2455444335938</v>
       </c>
       <c r="C472" t="n">
         <v>124.6699981689453</v>
@@ -11335,7 +11335,7 @@
         <v>44511</v>
       </c>
       <c r="B474" t="n">
-        <v>121.2293395996094</v>
+        <v>121.2293472290039</v>
       </c>
       <c r="C474" t="n">
         <v>125.6900024414062</v>
@@ -11381,7 +11381,7 @@
         <v>44515</v>
       </c>
       <c r="B476" t="n">
-        <v>120.4452133178711</v>
+        <v>120.4452056884766</v>
       </c>
       <c r="C476" t="n">
         <v>124.4199981689453</v>
@@ -11427,7 +11427,7 @@
         <v>44517</v>
       </c>
       <c r="B478" t="n">
-        <v>120.6872177124023</v>
+        <v>120.6872253417969</v>
       </c>
       <c r="C478" t="n">
         <v>124.6699981689453</v>
@@ -11450,7 +11450,7 @@
         <v>44518</v>
       </c>
       <c r="B479" t="n">
-        <v>120.5129776000977</v>
+        <v>120.5129852294922</v>
       </c>
       <c r="C479" t="n">
         <v>124.4899978637695</v>
@@ -11496,7 +11496,7 @@
         <v>44522</v>
       </c>
       <c r="B481" t="n">
-        <v>117.2506408691406</v>
+        <v>117.2506484985352</v>
       </c>
       <c r="C481" t="n">
         <v>121.120002746582</v>
@@ -11565,7 +11565,7 @@
         <v>44526</v>
       </c>
       <c r="B484" t="n">
-        <v>116.3890533447266</v>
+        <v>116.3890838623047</v>
       </c>
       <c r="C484" t="n">
         <v>120.2300033569336</v>
@@ -11588,7 +11588,7 @@
         <v>44529</v>
       </c>
       <c r="B485" t="n">
-        <v>116.3890533447266</v>
+        <v>116.3890838623047</v>
       </c>
       <c r="C485" t="n">
         <v>120.2300033569336</v>
@@ -11611,7 +11611,7 @@
         <v>44530</v>
       </c>
       <c r="B486" t="n">
-        <v>112.0521850585938</v>
+        <v>112.0521774291992</v>
       </c>
       <c r="C486" t="n">
         <v>115.75</v>
@@ -11634,7 +11634,7 @@
         <v>44531</v>
       </c>
       <c r="B487" t="n">
-        <v>110.435546875</v>
+        <v>110.4355392456055</v>
       </c>
       <c r="C487" t="n">
         <v>114.0800018310547</v>
@@ -11657,7 +11657,7 @@
         <v>44532</v>
       </c>
       <c r="B488" t="n">
-        <v>112.1006088256836</v>
+        <v>112.1005935668945</v>
       </c>
       <c r="C488" t="n">
         <v>115.8000030517578</v>
@@ -11680,7 +11680,7 @@
         <v>44533</v>
       </c>
       <c r="B489" t="n">
-        <v>113.029914855957</v>
+        <v>113.0299301147461</v>
       </c>
       <c r="C489" t="n">
         <v>116.7600021362305</v>
@@ -11703,7 +11703,7 @@
         <v>44536</v>
       </c>
       <c r="B490" t="n">
-        <v>115.1015701293945</v>
+        <v>115.1015625</v>
       </c>
       <c r="C490" t="n">
         <v>118.9000015258789</v>
@@ -11726,7 +11726,7 @@
         <v>44537</v>
       </c>
       <c r="B491" t="n">
-        <v>115.7017440795898</v>
+        <v>115.7017517089844</v>
       </c>
       <c r="C491" t="n">
         <v>119.5199966430664</v>
@@ -11749,7 +11749,7 @@
         <v>44538</v>
       </c>
       <c r="B492" t="n">
-        <v>116.9892501831055</v>
+        <v>116.9892654418945</v>
       </c>
       <c r="C492" t="n">
         <v>120.8499984741211</v>
@@ -11795,7 +11795,7 @@
         <v>44540</v>
       </c>
       <c r="B494" t="n">
-        <v>119.1964111328125</v>
+        <v>119.196418762207</v>
       </c>
       <c r="C494" t="n">
         <v>123.129997253418</v>
@@ -11818,7 +11818,7 @@
         <v>44543</v>
       </c>
       <c r="B495" t="n">
-        <v>118.6059036254883</v>
+        <v>118.6058959960938</v>
       </c>
       <c r="C495" t="n">
         <v>122.5199966430664</v>
@@ -11841,7 +11841,7 @@
         <v>44544</v>
       </c>
       <c r="B496" t="n">
-        <v>119.3609848022461</v>
+        <v>119.3609924316406</v>
       </c>
       <c r="C496" t="n">
         <v>123.3000030517578</v>
@@ -11864,7 +11864,7 @@
         <v>44545</v>
       </c>
       <c r="B497" t="n">
-        <v>119.8159790039062</v>
+        <v>119.8159713745117</v>
       </c>
       <c r="C497" t="n">
         <v>123.7699966430664</v>
@@ -11887,7 +11887,7 @@
         <v>44546</v>
       </c>
       <c r="B498" t="n">
-        <v>120.0192718505859</v>
+        <v>120.0192489624023</v>
       </c>
       <c r="C498" t="n">
         <v>123.9800033569336</v>
@@ -11933,7 +11933,7 @@
         <v>44550</v>
       </c>
       <c r="B500" t="n">
-        <v>121.9844207763672</v>
+        <v>121.9844131469727</v>
       </c>
       <c r="C500" t="n">
         <v>126.0100021362305</v>
@@ -11956,7 +11956,7 @@
         <v>44551</v>
       </c>
       <c r="B501" t="n">
-        <v>123.5332946777344</v>
+        <v>123.5333099365234</v>
       </c>
       <c r="C501" t="n">
         <v>127.6100006103516</v>
@@ -11979,7 +11979,7 @@
         <v>44552</v>
       </c>
       <c r="B502" t="n">
-        <v>123.7269134521484</v>
+        <v>123.7269058227539</v>
       </c>
       <c r="C502" t="n">
         <v>127.8099975585938</v>
@@ -12002,7 +12002,7 @@
         <v>44553</v>
       </c>
       <c r="B503" t="n">
-        <v>125.3919830322266</v>
+        <v>125.3919677734375</v>
       </c>
       <c r="C503" t="n">
         <v>129.5299987792969</v>
@@ -12025,7 +12025,7 @@
         <v>44557</v>
       </c>
       <c r="B504" t="n">
-        <v>127.6862335205078</v>
+        <v>127.6862182617188</v>
       </c>
       <c r="C504" t="n">
         <v>131.8999938964844</v>
@@ -12094,7 +12094,7 @@
         <v>44560</v>
       </c>
       <c r="B507" t="n">
-        <v>129.4965057373047</v>
+        <v>129.4964904785156</v>
       </c>
       <c r="C507" t="n">
         <v>133.7700042724609</v>
@@ -12163,7 +12163,7 @@
         <v>44565</v>
       </c>
       <c r="B510" t="n">
-        <v>127.1635055541992</v>
+        <v>127.1634902954102</v>
       </c>
       <c r="C510" t="n">
         <v>131.3600006103516</v>
@@ -12186,7 +12186,7 @@
         <v>44566</v>
       </c>
       <c r="B511" t="n">
-        <v>128.2670593261719</v>
+        <v>128.2670745849609</v>
       </c>
       <c r="C511" t="n">
         <v>132.5</v>
@@ -12209,7 +12209,7 @@
         <v>44567</v>
       </c>
       <c r="B512" t="n">
-        <v>126.282585144043</v>
+        <v>126.2825698852539</v>
       </c>
       <c r="C512" t="n">
         <v>130.4499969482422</v>
@@ -12232,7 +12232,7 @@
         <v>44568</v>
       </c>
       <c r="B513" t="n">
-        <v>128.8672637939453</v>
+        <v>128.8672790527344</v>
       </c>
       <c r="C513" t="n">
         <v>133.1199951171875</v>
@@ -12255,7 +12255,7 @@
         <v>44571</v>
       </c>
       <c r="B514" t="n">
-        <v>130.3387145996094</v>
+        <v>130.3386840820312</v>
       </c>
       <c r="C514" t="n">
         <v>134.6399993896484</v>
@@ -12278,7 +12278,7 @@
         <v>44572</v>
       </c>
       <c r="B515" t="n">
-        <v>132.0908966064453</v>
+        <v>132.0908813476562</v>
       </c>
       <c r="C515" t="n">
         <v>136.4499969482422</v>
@@ -12301,7 +12301,7 @@
         <v>44573</v>
       </c>
       <c r="B516" t="n">
-        <v>131.3745269775391</v>
+        <v>131.3745422363281</v>
       </c>
       <c r="C516" t="n">
         <v>135.7100067138672</v>
@@ -12347,7 +12347,7 @@
         <v>44575</v>
       </c>
       <c r="B518" t="n">
-        <v>131.848876953125</v>
+        <v>131.8488922119141</v>
       </c>
       <c r="C518" t="n">
         <v>136.1999969482422</v>
@@ -12370,7 +12370,7 @@
         <v>44579</v>
       </c>
       <c r="B519" t="n">
-        <v>129.5352172851562</v>
+        <v>129.5352478027344</v>
       </c>
       <c r="C519" t="n">
         <v>133.8099975585938</v>
@@ -12393,7 +12393,7 @@
         <v>44580</v>
       </c>
       <c r="B520" t="n">
-        <v>128.1605987548828</v>
+        <v>128.1605834960938</v>
       </c>
       <c r="C520" t="n">
         <v>132.3899993896484</v>
@@ -12439,7 +12439,7 @@
         <v>44582</v>
       </c>
       <c r="B522" t="n">
-        <v>127.3183898925781</v>
+        <v>127.3183746337891</v>
       </c>
       <c r="C522" t="n">
         <v>131.5200042724609</v>
@@ -12462,7 +12462,7 @@
         <v>44585</v>
       </c>
       <c r="B523" t="n">
-        <v>127.3474578857422</v>
+        <v>127.3474273681641</v>
       </c>
       <c r="C523" t="n">
         <v>131.5500030517578</v>
@@ -12485,7 +12485,7 @@
         <v>44586</v>
       </c>
       <c r="B524" t="n">
-        <v>126.8730850219727</v>
+        <v>126.8730773925781</v>
       </c>
       <c r="C524" t="n">
         <v>131.0599975585938</v>
@@ -12508,7 +12508,7 @@
         <v>44587</v>
       </c>
       <c r="B525" t="n">
-        <v>126.3793792724609</v>
+        <v>126.3793563842773</v>
       </c>
       <c r="C525" t="n">
         <v>130.5500030517578</v>
@@ -12554,7 +12554,7 @@
         <v>44589</v>
       </c>
       <c r="B527" t="n">
-        <v>132.4297332763672</v>
+        <v>132.4297180175781</v>
       </c>
       <c r="C527" t="n">
         <v>136.8000030517578</v>
@@ -12577,7 +12577,7 @@
         <v>44592</v>
       </c>
       <c r="B528" t="n">
-        <v>131.848876953125</v>
+        <v>131.8488922119141</v>
       </c>
       <c r="C528" t="n">
         <v>136.1999969482422</v>
@@ -12600,7 +12600,7 @@
         <v>44593</v>
       </c>
       <c r="B529" t="n">
-        <v>133.2622222900391</v>
+        <v>133.2622528076172</v>
       </c>
       <c r="C529" t="n">
         <v>137.6600036621094</v>
@@ -12623,7 +12623,7 @@
         <v>44594</v>
       </c>
       <c r="B530" t="n">
-        <v>131.7327270507812</v>
+        <v>131.7327575683594</v>
       </c>
       <c r="C530" t="n">
         <v>136.0800018310547</v>
@@ -12646,7 +12646,7 @@
         <v>44595</v>
       </c>
       <c r="B531" t="n">
-        <v>133.4752197265625</v>
+        <v>133.4751892089844</v>
       </c>
       <c r="C531" t="n">
         <v>137.8800048828125</v>
@@ -12669,7 +12669,7 @@
         <v>44596</v>
       </c>
       <c r="B532" t="n">
-        <v>132.2457580566406</v>
+        <v>132.2457885742188</v>
       </c>
       <c r="C532" t="n">
         <v>136.6100006103516</v>
@@ -12692,7 +12692,7 @@
         <v>44599</v>
       </c>
       <c r="B533" t="n">
-        <v>134.9563446044922</v>
+        <v>134.9563598632812</v>
       </c>
       <c r="C533" t="n">
         <v>139.4100036621094</v>
@@ -12715,7 +12715,7 @@
         <v>44600</v>
       </c>
       <c r="B534" t="n">
-        <v>137.6959228515625</v>
+        <v>137.6959381103516</v>
       </c>
       <c r="C534" t="n">
         <v>142.2400054931641</v>
@@ -12738,7 +12738,7 @@
         <v>44601</v>
       </c>
       <c r="B535" t="n">
-        <v>138.3541870117188</v>
+        <v>138.3542022705078</v>
       </c>
       <c r="C535" t="n">
         <v>142.9199981689453</v>
@@ -12830,7 +12830,7 @@
         <v>44607</v>
       </c>
       <c r="B539" t="n">
-        <v>137.4067535400391</v>
+        <v>137.40673828125</v>
       </c>
       <c r="C539" t="n">
         <v>141.4799957275391</v>
@@ -12876,7 +12876,7 @@
         <v>44609</v>
       </c>
       <c r="B541" t="n">
-        <v>138.0186309814453</v>
+        <v>138.0186462402344</v>
       </c>
       <c r="C541" t="n">
         <v>142.1100006103516</v>
@@ -12922,7 +12922,7 @@
         <v>44614</v>
       </c>
       <c r="B543" t="n">
-        <v>136.5132751464844</v>
+        <v>136.5132446289062</v>
       </c>
       <c r="C543" t="n">
         <v>140.5599975585938</v>
@@ -12945,7 +12945,7 @@
         <v>44615</v>
       </c>
       <c r="B544" t="n">
-        <v>135.4546508789062</v>
+        <v>135.4546356201172</v>
       </c>
       <c r="C544" t="n">
         <v>139.4700012207031</v>
@@ -12968,7 +12968,7 @@
         <v>44616</v>
       </c>
       <c r="B545" t="n">
-        <v>133.8909912109375</v>
+        <v>133.8909606933594</v>
       </c>
       <c r="C545" t="n">
         <v>137.8600006103516</v>
@@ -12991,7 +12991,7 @@
         <v>44617</v>
       </c>
       <c r="B546" t="n">
-        <v>137.8341064453125</v>
+        <v>137.8341217041016</v>
       </c>
       <c r="C546" t="n">
         <v>141.9199981689453</v>
@@ -13014,7 +13014,7 @@
         <v>44620</v>
       </c>
       <c r="B547" t="n">
-        <v>138.4264984130859</v>
+        <v>138.4265289306641</v>
       </c>
       <c r="C547" t="n">
         <v>142.5299987792969</v>
@@ -13037,7 +13037,7 @@
         <v>44621</v>
       </c>
       <c r="B548" t="n">
-        <v>137.8826446533203</v>
+        <v>137.8826599121094</v>
       </c>
       <c r="C548" t="n">
         <v>141.9700012207031</v>
@@ -13060,7 +13060,7 @@
         <v>44622</v>
       </c>
       <c r="B549" t="n">
-        <v>138.8829956054688</v>
+        <v>138.8830261230469</v>
       </c>
       <c r="C549" t="n">
         <v>143</v>
@@ -13083,7 +13083,7 @@
         <v>44623</v>
       </c>
       <c r="B550" t="n">
-        <v>141.2819061279297</v>
+        <v>141.2818756103516</v>
       </c>
       <c r="C550" t="n">
         <v>145.4700012207031</v>
@@ -13106,7 +13106,7 @@
         <v>44624</v>
       </c>
       <c r="B551" t="n">
-        <v>143.0591888427734</v>
+        <v>143.0592346191406</v>
       </c>
       <c r="C551" t="n">
         <v>147.3000030517578</v>
@@ -13152,7 +13152,7 @@
         <v>44628</v>
       </c>
       <c r="B553" t="n">
-        <v>140.2524261474609</v>
+        <v>140.2524108886719</v>
       </c>
       <c r="C553" t="n">
         <v>144.4100036621094</v>
@@ -13175,7 +13175,7 @@
         <v>44629</v>
       </c>
       <c r="B554" t="n">
-        <v>141.6315307617188</v>
+        <v>141.6315460205078</v>
       </c>
       <c r="C554" t="n">
         <v>145.8300018310547</v>
@@ -13198,7 +13198,7 @@
         <v>44630</v>
       </c>
       <c r="B555" t="n">
-        <v>141.9617156982422</v>
+        <v>141.9617309570312</v>
       </c>
       <c r="C555" t="n">
         <v>146.1699981689453</v>
@@ -13244,7 +13244,7 @@
         <v>44634</v>
       </c>
       <c r="B557" t="n">
-        <v>141.9422760009766</v>
+        <v>141.9423217773438</v>
       </c>
       <c r="C557" t="n">
         <v>146.1499938964844</v>
@@ -13290,7 +13290,7 @@
         <v>44636</v>
       </c>
       <c r="B559" t="n">
-        <v>146.1670684814453</v>
+        <v>146.1670837402344</v>
       </c>
       <c r="C559" t="n">
         <v>150.5</v>
@@ -13313,7 +13313,7 @@
         <v>44637</v>
       </c>
       <c r="B560" t="n">
-        <v>147.8181457519531</v>
+        <v>147.818115234375</v>
       </c>
       <c r="C560" t="n">
         <v>152.1999969482422</v>
@@ -13336,7 +13336,7 @@
         <v>44638</v>
       </c>
       <c r="B561" t="n">
-        <v>147.6238708496094</v>
+        <v>147.6238861083984</v>
       </c>
       <c r="C561" t="n">
         <v>152</v>
@@ -13382,7 +13382,7 @@
         <v>44642</v>
       </c>
       <c r="B563" t="n">
-        <v>147.730712890625</v>
+        <v>147.7307281494141</v>
       </c>
       <c r="C563" t="n">
         <v>152.1100006103516</v>
@@ -13405,7 +13405,7 @@
         <v>44643</v>
       </c>
       <c r="B564" t="n">
-        <v>147.1674346923828</v>
+        <v>147.1674194335938</v>
       </c>
       <c r="C564" t="n">
         <v>151.5299987792969</v>
@@ -13428,7 +13428,7 @@
         <v>44644</v>
       </c>
       <c r="B565" t="n">
-        <v>148.2163391113281</v>
+        <v>148.2163696289062</v>
       </c>
       <c r="C565" t="n">
         <v>152.6100006103516</v>
@@ -13474,7 +13474,7 @@
         <v>44648</v>
       </c>
       <c r="B567" t="n">
-        <v>150.2752685546875</v>
+        <v>150.2752838134766</v>
       </c>
       <c r="C567" t="n">
         <v>154.7299957275391</v>
@@ -13497,7 +13497,7 @@
         <v>44649</v>
       </c>
       <c r="B568" t="n">
-        <v>150.5763702392578</v>
+        <v>150.5763397216797</v>
       </c>
       <c r="C568" t="n">
         <v>155.0399932861328</v>
@@ -13520,7 +13520,7 @@
         <v>44650</v>
       </c>
       <c r="B569" t="n">
-        <v>150.6735076904297</v>
+        <v>150.6734924316406</v>
       </c>
       <c r="C569" t="n">
         <v>155.1399993896484</v>
@@ -13543,7 +13543,7 @@
         <v>44651</v>
       </c>
       <c r="B570" t="n">
-        <v>150.2558746337891</v>
+        <v>150.2558441162109</v>
       </c>
       <c r="C570" t="n">
         <v>154.7100067138672</v>
@@ -13589,7 +13589,7 @@
         <v>44655</v>
       </c>
       <c r="B572" t="n">
-        <v>150.2947387695312</v>
+        <v>150.2947235107422</v>
       </c>
       <c r="C572" t="n">
         <v>154.75</v>
@@ -13612,7 +13612,7 @@
         <v>44656</v>
       </c>
       <c r="B573" t="n">
-        <v>151.2756500244141</v>
+        <v>151.2756652832031</v>
       </c>
       <c r="C573" t="n">
         <v>155.7599945068359</v>
@@ -13635,7 +13635,7 @@
         <v>44657</v>
       </c>
       <c r="B574" t="n">
-        <v>153.5871429443359</v>
+        <v>153.5871124267578</v>
       </c>
       <c r="C574" t="n">
         <v>158.1399993896484</v>
@@ -13658,7 +13658,7 @@
         <v>44658</v>
       </c>
       <c r="B575" t="n">
-        <v>158.2295227050781</v>
+        <v>158.2295074462891</v>
       </c>
       <c r="C575" t="n">
         <v>162.9199981689453</v>
@@ -13681,7 +13681,7 @@
         <v>44659</v>
       </c>
       <c r="B576" t="n">
-        <v>160.6769561767578</v>
+        <v>160.6769714355469</v>
       </c>
       <c r="C576" t="n">
         <v>165.4400024414062</v>
@@ -13704,7 +13704,7 @@
         <v>44662</v>
       </c>
       <c r="B577" t="n">
-        <v>157.9672698974609</v>
+        <v>157.96728515625</v>
       </c>
       <c r="C577" t="n">
         <v>162.6499938964844</v>
@@ -13727,7 +13727,7 @@
         <v>44663</v>
       </c>
       <c r="B578" t="n">
-        <v>157.9381256103516</v>
+        <v>157.9381561279297</v>
       </c>
       <c r="C578" t="n">
         <v>162.6199951171875</v>
@@ -13750,7 +13750,7 @@
         <v>44664</v>
       </c>
       <c r="B579" t="n">
-        <v>158.2683715820312</v>
+        <v>158.2683563232422</v>
       </c>
       <c r="C579" t="n">
         <v>162.9600067138672</v>
@@ -13773,7 +13773,7 @@
         <v>44665</v>
       </c>
       <c r="B580" t="n">
-        <v>156.5687408447266</v>
+        <v>156.5687561035156</v>
       </c>
       <c r="C580" t="n">
         <v>161.2100067138672</v>
@@ -13796,7 +13796,7 @@
         <v>44669</v>
       </c>
       <c r="B581" t="n">
-        <v>157.2388763427734</v>
+        <v>157.2388610839844</v>
       </c>
       <c r="C581" t="n">
         <v>161.8999938964844</v>
@@ -13819,7 +13819,7 @@
         <v>44670</v>
       </c>
       <c r="B582" t="n">
-        <v>158.1615295410156</v>
+        <v>158.1615142822266</v>
       </c>
       <c r="C582" t="n">
         <v>162.8500061035156</v>
@@ -13842,7 +13842,7 @@
         <v>44671</v>
       </c>
       <c r="B583" t="n">
-        <v>160.9585876464844</v>
+        <v>160.9586181640625</v>
       </c>
       <c r="C583" t="n">
         <v>165.7299957275391</v>
@@ -13888,7 +13888,7 @@
         <v>44673</v>
       </c>
       <c r="B585" t="n">
-        <v>154.42236328125</v>
+        <v>154.4223480224609</v>
       </c>
       <c r="C585" t="n">
         <v>159</v>
@@ -13911,7 +13911,7 @@
         <v>44676</v>
       </c>
       <c r="B586" t="n">
-        <v>153.9076232910156</v>
+        <v>153.9076538085938</v>
       </c>
       <c r="C586" t="n">
         <v>158.4700012207031</v>
@@ -13957,7 +13957,7 @@
         <v>44678</v>
       </c>
       <c r="B588" t="n">
-        <v>152.9267120361328</v>
+        <v>152.9266967773438</v>
       </c>
       <c r="C588" t="n">
         <v>157.4600067138672</v>
@@ -13980,7 +13980,7 @@
         <v>44679</v>
       </c>
       <c r="B589" t="n">
-        <v>153.2083740234375</v>
+        <v>153.2083435058594</v>
       </c>
       <c r="C589" t="n">
         <v>157.75</v>
@@ -14003,7 +14003,7 @@
         <v>44680</v>
       </c>
       <c r="B590" t="n">
-        <v>146.9343109130859</v>
+        <v>146.934326171875</v>
       </c>
       <c r="C590" t="n">
         <v>151.2899932861328</v>
@@ -14049,7 +14049,7 @@
         <v>44684</v>
       </c>
       <c r="B592" t="n">
-        <v>146.4195709228516</v>
+        <v>146.4195861816406</v>
       </c>
       <c r="C592" t="n">
         <v>150.7599945068359</v>
@@ -14072,7 +14072,7 @@
         <v>44685</v>
       </c>
       <c r="B593" t="n">
-        <v>152.2759704589844</v>
+        <v>152.2759857177734</v>
       </c>
       <c r="C593" t="n">
         <v>156.7899932861328</v>
@@ -14095,7 +14095,7 @@
         <v>44686</v>
       </c>
       <c r="B594" t="n">
-        <v>150.7220611572266</v>
+        <v>150.7220458984375</v>
       </c>
       <c r="C594" t="n">
         <v>155.1900024414062</v>
@@ -14118,7 +14118,7 @@
         <v>44687</v>
       </c>
       <c r="B595" t="n">
-        <v>154.4320831298828</v>
+        <v>154.4320678710938</v>
       </c>
       <c r="C595" t="n">
         <v>159.0099945068359</v>
@@ -14141,7 +14141,7 @@
         <v>44690</v>
       </c>
       <c r="B596" t="n">
-        <v>152.7907257080078</v>
+        <v>152.7907104492188</v>
       </c>
       <c r="C596" t="n">
         <v>157.3200073242188</v>
@@ -14164,7 +14164,7 @@
         <v>44691</v>
       </c>
       <c r="B597" t="n">
-        <v>155.0536651611328</v>
+        <v>155.0536499023438</v>
       </c>
       <c r="C597" t="n">
         <v>159.6499938964844</v>
@@ -14187,7 +14187,7 @@
         <v>44692</v>
       </c>
       <c r="B598" t="n">
-        <v>156.6561431884766</v>
+        <v>156.6561737060547</v>
       </c>
       <c r="C598" t="n">
         <v>161.3000030517578</v>
@@ -14210,7 +14210,7 @@
         <v>44693</v>
       </c>
       <c r="B599" t="n">
-        <v>147.2451171875</v>
+        <v>147.2451324462891</v>
       </c>
       <c r="C599" t="n">
         <v>151.6100006103516</v>
@@ -14233,7 +14233,7 @@
         <v>44694</v>
       </c>
       <c r="B600" t="n">
-        <v>148.940185546875</v>
+        <v>148.9401702880859</v>
       </c>
       <c r="C600" t="n">
         <v>152.8899993896484</v>
@@ -14279,7 +14279,7 @@
         <v>44698</v>
       </c>
       <c r="B602" t="n">
-        <v>152.8757934570312</v>
+        <v>152.8758087158203</v>
       </c>
       <c r="C602" t="n">
         <v>156.9299926757812</v>
@@ -14302,7 +14302,7 @@
         <v>44699</v>
       </c>
       <c r="B603" t="n">
-        <v>147.2061462402344</v>
+        <v>147.2061614990234</v>
       </c>
       <c r="C603" t="n">
         <v>151.1100006103516</v>
@@ -14325,7 +14325,7 @@
         <v>44700</v>
       </c>
       <c r="B604" t="n">
-        <v>145.5208740234375</v>
+        <v>145.5208892822266</v>
       </c>
       <c r="C604" t="n">
         <v>149.3800048828125</v>
@@ -14348,7 +14348,7 @@
         <v>44701</v>
       </c>
       <c r="B605" t="n">
-        <v>146.3001861572266</v>
+        <v>146.3002014160156</v>
       </c>
       <c r="C605" t="n">
         <v>150.1799926757812</v>
@@ -14371,7 +14371,7 @@
         <v>44704</v>
       </c>
       <c r="B606" t="n">
-        <v>148.7550659179688</v>
+        <v>148.7550811767578</v>
       </c>
       <c r="C606" t="n">
         <v>152.6999969482422</v>
@@ -14394,7 +14394,7 @@
         <v>44705</v>
       </c>
       <c r="B607" t="n">
-        <v>149.1252899169922</v>
+        <v>149.1252746582031</v>
       </c>
       <c r="C607" t="n">
         <v>153.0800018310547</v>
@@ -14417,7 +14417,7 @@
         <v>44706</v>
       </c>
       <c r="B608" t="n">
-        <v>150.2845001220703</v>
+        <v>150.2845306396484</v>
       </c>
       <c r="C608" t="n">
         <v>154.2700042724609</v>
@@ -14509,7 +14509,7 @@
         <v>44713</v>
       </c>
       <c r="B612" t="n">
-        <v>146.1345825195312</v>
+        <v>146.1345672607422</v>
       </c>
       <c r="C612" t="n">
         <v>150.0099945068359</v>
@@ -14532,7 +14532,7 @@
         <v>44714</v>
       </c>
       <c r="B613" t="n">
-        <v>144.3810729980469</v>
+        <v>144.3810882568359</v>
       </c>
       <c r="C613" t="n">
         <v>148.2100067138672</v>
@@ -14555,7 +14555,7 @@
         <v>44715</v>
       </c>
       <c r="B614" t="n">
-        <v>143.2315521240234</v>
+        <v>143.2315673828125</v>
       </c>
       <c r="C614" t="n">
         <v>147.0299987792969</v>
@@ -14578,7 +14578,7 @@
         <v>44718</v>
       </c>
       <c r="B615" t="n">
-        <v>143.0951538085938</v>
+        <v>143.0951690673828</v>
       </c>
       <c r="C615" t="n">
         <v>146.8899993896484</v>
@@ -14624,7 +14624,7 @@
         <v>44720</v>
       </c>
       <c r="B617" t="n">
-        <v>142.6372985839844</v>
+        <v>142.6373138427734</v>
       </c>
       <c r="C617" t="n">
         <v>146.4199981689453</v>
@@ -14647,7 +14647,7 @@
         <v>44721</v>
       </c>
       <c r="B618" t="n">
-        <v>140.2408905029297</v>
+        <v>140.2408752441406</v>
       </c>
       <c r="C618" t="n">
         <v>143.9600067138672</v>
@@ -14670,7 +14670,7 @@
         <v>44722</v>
       </c>
       <c r="B619" t="n">
-        <v>140.7182006835938</v>
+        <v>140.7182159423828</v>
       </c>
       <c r="C619" t="n">
         <v>144.4499969482422</v>
@@ -14693,7 +14693,7 @@
         <v>44725</v>
       </c>
       <c r="B620" t="n">
-        <v>137.8639373779297</v>
+        <v>137.8639068603516</v>
       </c>
       <c r="C620" t="n">
         <v>141.5200042724609</v>
@@ -14716,7 +14716,7 @@
         <v>44726</v>
       </c>
       <c r="B621" t="n">
-        <v>137.5619201660156</v>
+        <v>137.5619049072266</v>
       </c>
       <c r="C621" t="n">
         <v>141.2100067138672</v>
@@ -14762,7 +14762,7 @@
         <v>44728</v>
       </c>
       <c r="B623" t="n">
-        <v>137.3184051513672</v>
+        <v>137.3183898925781</v>
       </c>
       <c r="C623" t="n">
         <v>140.9600067138672</v>
@@ -14831,7 +14831,7 @@
         <v>44734</v>
       </c>
       <c r="B626" t="n">
-        <v>141.2734680175781</v>
+        <v>141.2734985351562</v>
       </c>
       <c r="C626" t="n">
         <v>145.0200042724609</v>
@@ -14854,7 +14854,7 @@
         <v>44735</v>
       </c>
       <c r="B627" t="n">
-        <v>140.8643646240234</v>
+        <v>140.8643493652344</v>
       </c>
       <c r="C627" t="n">
         <v>144.6000061035156</v>
@@ -14877,7 +14877,7 @@
         <v>44736</v>
       </c>
       <c r="B628" t="n">
-        <v>144.6246337890625</v>
+        <v>144.6246490478516</v>
       </c>
       <c r="C628" t="n">
         <v>148.4600067138672</v>
@@ -14946,7 +14946,7 @@
         <v>44741</v>
       </c>
       <c r="B631" t="n">
-        <v>139.8707122802734</v>
+        <v>139.8706970214844</v>
       </c>
       <c r="C631" t="n">
         <v>143.5800018310547</v>
@@ -14992,7 +14992,7 @@
         <v>44743</v>
       </c>
       <c r="B633" t="n">
-        <v>139.4420471191406</v>
+        <v>139.4420623779297</v>
       </c>
       <c r="C633" t="n">
         <v>143.1399993896484</v>
@@ -15015,7 +15015,7 @@
         <v>44747</v>
       </c>
       <c r="B634" t="n">
-        <v>137.0748291015625</v>
+        <v>137.0748443603516</v>
       </c>
       <c r="C634" t="n">
         <v>140.7100067138672</v>
@@ -15061,7 +15061,7 @@
         <v>44749</v>
       </c>
       <c r="B636" t="n">
-        <v>137.1527862548828</v>
+        <v>137.1527709960938</v>
       </c>
       <c r="C636" t="n">
         <v>140.7899932861328</v>
@@ -15107,7 +15107,7 @@
         <v>44753</v>
       </c>
       <c r="B638" t="n">
-        <v>137.6690979003906</v>
+        <v>137.6691131591797</v>
       </c>
       <c r="C638" t="n">
         <v>141.3200073242188</v>
@@ -15130,7 +15130,7 @@
         <v>44754</v>
       </c>
       <c r="B639" t="n">
-        <v>137.7275390625</v>
+        <v>137.7275543212891</v>
       </c>
       <c r="C639" t="n">
         <v>141.3800048828125</v>
@@ -15153,7 +15153,7 @@
         <v>44755</v>
       </c>
       <c r="B640" t="n">
-        <v>135.5161895751953</v>
+        <v>135.5161743164062</v>
       </c>
       <c r="C640" t="n">
         <v>139.1100006103516</v>
@@ -15176,7 +15176,7 @@
         <v>44756</v>
       </c>
       <c r="B641" t="n">
-        <v>135.9253387451172</v>
+        <v>135.9253234863281</v>
       </c>
       <c r="C641" t="n">
         <v>139.5299987792969</v>
@@ -15199,7 +15199,7 @@
         <v>44757</v>
       </c>
       <c r="B642" t="n">
-        <v>138.5458221435547</v>
+        <v>138.5458374023438</v>
       </c>
       <c r="C642" t="n">
         <v>142.2200012207031</v>
@@ -15222,7 +15222,7 @@
         <v>44760</v>
       </c>
       <c r="B643" t="n">
-        <v>136.7728424072266</v>
+        <v>136.7728576660156</v>
       </c>
       <c r="C643" t="n">
         <v>140.3999938964844</v>
@@ -15245,7 +15245,7 @@
         <v>44761</v>
       </c>
       <c r="B644" t="n">
-        <v>139.3933410644531</v>
+        <v>139.3933563232422</v>
       </c>
       <c r="C644" t="n">
         <v>143.0899963378906</v>
@@ -15268,7 +15268,7 @@
         <v>44762</v>
       </c>
       <c r="B645" t="n">
-        <v>137.834716796875</v>
+        <v>137.8346862792969</v>
       </c>
       <c r="C645" t="n">
         <v>141.4900054931641</v>
@@ -15291,7 +15291,7 @@
         <v>44763</v>
       </c>
       <c r="B646" t="n">
-        <v>138.4678802490234</v>
+        <v>138.4678955078125</v>
       </c>
       <c r="C646" t="n">
         <v>142.1399993896484</v>
@@ -15314,7 +15314,7 @@
         <v>44764</v>
       </c>
       <c r="B647" t="n">
-        <v>138.8185882568359</v>
+        <v>138.8186187744141</v>
       </c>
       <c r="C647" t="n">
         <v>142.5</v>
@@ -15337,7 +15337,7 @@
         <v>44767</v>
       </c>
       <c r="B648" t="n">
-        <v>140.4259796142578</v>
+        <v>140.4259490966797</v>
       </c>
       <c r="C648" t="n">
         <v>144.1499938964844</v>
@@ -15360,7 +15360,7 @@
         <v>44768</v>
       </c>
       <c r="B649" t="n">
-        <v>141.4488525390625</v>
+        <v>141.4488372802734</v>
       </c>
       <c r="C649" t="n">
         <v>145.1999969482422</v>
@@ -15383,7 +15383,7 @@
         <v>44769</v>
       </c>
       <c r="B650" t="n">
-        <v>141.3222198486328</v>
+        <v>141.3221893310547</v>
       </c>
       <c r="C650" t="n">
         <v>145.0700073242188</v>
@@ -15406,7 +15406,7 @@
         <v>44770</v>
       </c>
       <c r="B651" t="n">
-        <v>141.8092956542969</v>
+        <v>141.8092651367188</v>
       </c>
       <c r="C651" t="n">
         <v>145.5700073242188</v>
@@ -15429,7 +15429,7 @@
         <v>44771</v>
       </c>
       <c r="B652" t="n">
-        <v>142.1599578857422</v>
+        <v>142.1599884033203</v>
       </c>
       <c r="C652" t="n">
         <v>145.9299926757812</v>
@@ -15452,7 +15452,7 @@
         <v>44774</v>
       </c>
       <c r="B653" t="n">
-        <v>142.1599578857422</v>
+        <v>142.1599884033203</v>
       </c>
       <c r="C653" t="n">
         <v>145.9299926757812</v>
@@ -15475,7 +15475,7 @@
         <v>44775</v>
       </c>
       <c r="B654" t="n">
-        <v>139.1205749511719</v>
+        <v>139.1205902099609</v>
       </c>
       <c r="C654" t="n">
         <v>142.8099975585938</v>
@@ -15498,7 +15498,7 @@
         <v>44776</v>
       </c>
       <c r="B655" t="n">
-        <v>135.4090576171875</v>
+        <v>135.4090118408203</v>
       </c>
       <c r="C655" t="n">
         <v>139</v>
@@ -15521,7 +15521,7 @@
         <v>44777</v>
       </c>
       <c r="B656" t="n">
-        <v>135.6720581054688</v>
+        <v>135.6720275878906</v>
       </c>
       <c r="C656" t="n">
         <v>139.2700042724609</v>
@@ -15544,7 +15544,7 @@
         <v>44778</v>
       </c>
       <c r="B657" t="n">
-        <v>137.6593017578125</v>
+        <v>137.6593322753906</v>
       </c>
       <c r="C657" t="n">
         <v>141.3099975585938</v>
@@ -15567,7 +15567,7 @@
         <v>44781</v>
       </c>
       <c r="B658" t="n">
-        <v>136.9871520996094</v>
+        <v>136.9871368408203</v>
       </c>
       <c r="C658" t="n">
         <v>140.6199951171875</v>
@@ -15590,7 +15590,7 @@
         <v>44782</v>
       </c>
       <c r="B659" t="n">
-        <v>140.9812164306641</v>
+        <v>140.9812622070312</v>
       </c>
       <c r="C659" t="n">
         <v>144.7200012207031</v>
@@ -15613,7 +15613,7 @@
         <v>44783</v>
       </c>
       <c r="B660" t="n">
-        <v>141.8190307617188</v>
+        <v>141.8190155029297</v>
       </c>
       <c r="C660" t="n">
         <v>145.5800018310547</v>
@@ -15659,7 +15659,7 @@
         <v>44785</v>
       </c>
       <c r="B662" t="n">
-        <v>147.0683135986328</v>
+        <v>147.0683441162109</v>
       </c>
       <c r="C662" t="n">
         <v>150.5</v>
@@ -15682,7 +15682,7 @@
         <v>44788</v>
       </c>
       <c r="B663" t="n">
-        <v>147.3810424804688</v>
+        <v>147.3810272216797</v>
       </c>
       <c r="C663" t="n">
         <v>150.8200073242188</v>
@@ -15705,7 +15705,7 @@
         <v>44789</v>
       </c>
       <c r="B664" t="n">
-        <v>149.1791229248047</v>
+        <v>149.1790924072266</v>
       </c>
       <c r="C664" t="n">
         <v>152.6600036621094</v>
@@ -15728,7 +15728,7 @@
         <v>44790</v>
       </c>
       <c r="B665" t="n">
-        <v>146.1204528808594</v>
+        <v>146.1204833984375</v>
       </c>
       <c r="C665" t="n">
         <v>149.5299987792969</v>
@@ -15751,7 +15751,7 @@
         <v>44791</v>
       </c>
       <c r="B666" t="n">
-        <v>146.4918060302734</v>
+        <v>146.4917907714844</v>
       </c>
       <c r="C666" t="n">
         <v>149.9100036621094</v>
@@ -15820,7 +15820,7 @@
         <v>44796</v>
       </c>
       <c r="B669" t="n">
-        <v>144.6448974609375</v>
+        <v>144.6448822021484</v>
       </c>
       <c r="C669" t="n">
         <v>148.0200042724609</v>
@@ -15866,7 +15866,7 @@
         <v>44798</v>
       </c>
       <c r="B671" t="n">
-        <v>146.9901580810547</v>
+        <v>146.9901885986328</v>
       </c>
       <c r="C671" t="n">
         <v>150.4199981689453</v>
@@ -15889,7 +15889,7 @@
         <v>44799</v>
       </c>
       <c r="B672" t="n">
-        <v>142.8566284179688</v>
+        <v>142.8565979003906</v>
       </c>
       <c r="C672" t="n">
         <v>146.1900024414062</v>
@@ -15935,7 +15935,7 @@
         <v>44803</v>
       </c>
       <c r="B674" t="n">
-        <v>142.1139526367188</v>
+        <v>142.1139221191406</v>
       </c>
       <c r="C674" t="n">
         <v>145.4299926757812</v>
@@ -15958,7 +15958,7 @@
         <v>44804</v>
       </c>
       <c r="B675" t="n">
-        <v>143.2181854248047</v>
+        <v>143.2181701660156</v>
       </c>
       <c r="C675" t="n">
         <v>146.5599975585938</v>
@@ -15981,7 +15981,7 @@
         <v>44805</v>
       </c>
       <c r="B676" t="n">
-        <v>144.2442321777344</v>
+        <v>144.2442626953125</v>
       </c>
       <c r="C676" t="n">
         <v>147.6100006103516</v>
@@ -16027,7 +16027,7 @@
         <v>44810</v>
       </c>
       <c r="B678" t="n">
-        <v>142.6904754638672</v>
+        <v>142.6905059814453</v>
       </c>
       <c r="C678" t="n">
         <v>146.0200042724609</v>
@@ -16073,7 +16073,7 @@
         <v>44812</v>
       </c>
       <c r="B680" t="n">
-        <v>144.1758270263672</v>
+        <v>144.1758422851562</v>
       </c>
       <c r="C680" t="n">
         <v>147.5399932861328</v>
@@ -16096,7 +16096,7 @@
         <v>44813</v>
       </c>
       <c r="B681" t="n">
-        <v>143.9120178222656</v>
+        <v>143.9119873046875</v>
       </c>
       <c r="C681" t="n">
         <v>147.2700042724609</v>
@@ -16165,7 +16165,7 @@
         <v>44818</v>
       </c>
       <c r="B684" t="n">
-        <v>136.9152526855469</v>
+        <v>136.9152374267578</v>
       </c>
       <c r="C684" t="n">
         <v>140.1100006103516</v>
@@ -16188,7 +16188,7 @@
         <v>44819</v>
       </c>
       <c r="B685" t="n">
-        <v>136.6221008300781</v>
+        <v>136.6220855712891</v>
       </c>
       <c r="C685" t="n">
         <v>139.8099975585938</v>
@@ -16211,7 +16211,7 @@
         <v>44820</v>
       </c>
       <c r="B686" t="n">
-        <v>137.34521484375</v>
+        <v>137.3452301025391</v>
       </c>
       <c r="C686" t="n">
         <v>140.5500030517578</v>
@@ -16234,7 +16234,7 @@
         <v>44823</v>
       </c>
       <c r="B687" t="n">
-        <v>137.1693267822266</v>
+        <v>137.1693115234375</v>
       </c>
       <c r="C687" t="n">
         <v>140.3699951171875</v>
@@ -16257,7 +16257,7 @@
         <v>44824</v>
       </c>
       <c r="B688" t="n">
-        <v>135.7328338623047</v>
+        <v>135.7328491210938</v>
       </c>
       <c r="C688" t="n">
         <v>138.8999938964844</v>
@@ -16280,7 +16280,7 @@
         <v>44825</v>
       </c>
       <c r="B689" t="n">
-        <v>135.9478302001953</v>
+        <v>135.9478149414062</v>
       </c>
       <c r="C689" t="n">
         <v>139.1199951171875</v>
@@ -16303,7 +16303,7 @@
         <v>44826</v>
       </c>
       <c r="B690" t="n">
-        <v>136.8175201416016</v>
+        <v>136.8175354003906</v>
       </c>
       <c r="C690" t="n">
         <v>140.0099945068359</v>
@@ -16326,7 +16326,7 @@
         <v>44827</v>
       </c>
       <c r="B691" t="n">
-        <v>134.0715942382812</v>
+        <v>134.0716094970703</v>
       </c>
       <c r="C691" t="n">
         <v>137.1999969482422</v>
@@ -16349,7 +16349,7 @@
         <v>44830</v>
       </c>
       <c r="B692" t="n">
-        <v>133.2409820556641</v>
+        <v>133.2409973144531</v>
       </c>
       <c r="C692" t="n">
         <v>136.3500061035156</v>
@@ -16372,7 +16372,7 @@
         <v>44831</v>
       </c>
       <c r="B693" t="n">
-        <v>132.3517303466797</v>
+        <v>132.3517608642578</v>
       </c>
       <c r="C693" t="n">
         <v>135.4400024414062</v>
@@ -16395,7 +16395,7 @@
         <v>44832</v>
       </c>
       <c r="B694" t="n">
-        <v>135.2539978027344</v>
+        <v>135.2540130615234</v>
       </c>
       <c r="C694" t="n">
         <v>138.4100036621094</v>
@@ -16441,7 +16441,7 @@
         <v>44834</v>
       </c>
       <c r="B696" t="n">
-        <v>132.2442626953125</v>
+        <v>132.2442474365234</v>
       </c>
       <c r="C696" t="n">
         <v>135.3300018310547</v>
@@ -16464,7 +16464,7 @@
         <v>44837</v>
       </c>
       <c r="B697" t="n">
-        <v>136.1335144042969</v>
+        <v>136.1334838867188</v>
       </c>
       <c r="C697" t="n">
         <v>139.3099975585938</v>
@@ -16487,7 +16487,7 @@
         <v>44838</v>
       </c>
       <c r="B698" t="n">
-        <v>139.4755249023438</v>
+        <v>139.4754943847656</v>
       </c>
       <c r="C698" t="n">
         <v>142.7299957275391</v>
@@ -16510,7 +16510,7 @@
         <v>44839</v>
       </c>
       <c r="B699" t="n">
-        <v>139.2018890380859</v>
+        <v>139.201904296875</v>
       </c>
       <c r="C699" t="n">
         <v>142.4499969482422</v>
@@ -16556,7 +16556,7 @@
         <v>44841</v>
       </c>
       <c r="B701" t="n">
-        <v>134.2181854248047</v>
+        <v>134.2182159423828</v>
       </c>
       <c r="C701" t="n">
         <v>137.3500061035156</v>
@@ -16625,7 +16625,7 @@
         <v>44846</v>
       </c>
       <c r="B704" t="n">
-        <v>135.7719268798828</v>
+        <v>135.7719421386719</v>
       </c>
       <c r="C704" t="n">
         <v>138.9400024414062</v>
@@ -16671,7 +16671,7 @@
         <v>44848</v>
       </c>
       <c r="B706" t="n">
-        <v>137.3940887451172</v>
+        <v>137.3940734863281</v>
       </c>
       <c r="C706" t="n">
         <v>140.6000061035156</v>
@@ -16717,7 +16717,7 @@
         <v>44852</v>
       </c>
       <c r="B708" t="n">
-        <v>140.706787109375</v>
+        <v>140.7067718505859</v>
       </c>
       <c r="C708" t="n">
         <v>143.9900054931641</v>
@@ -16740,7 +16740,7 @@
         <v>44853</v>
       </c>
       <c r="B709" t="n">
-        <v>139.7295837402344</v>
+        <v>139.7295989990234</v>
       </c>
       <c r="C709" t="n">
         <v>142.9900054931641</v>
@@ -16809,7 +16809,7 @@
         <v>44858</v>
       </c>
       <c r="B712" t="n">
-        <v>146.677490234375</v>
+        <v>146.6774597167969</v>
       </c>
       <c r="C712" t="n">
         <v>150.1000061035156</v>
@@ -16878,7 +16878,7 @@
         <v>44861</v>
       </c>
       <c r="B715" t="n">
-        <v>152.34521484375</v>
+        <v>152.3451995849609</v>
       </c>
       <c r="C715" t="n">
         <v>155.8999938964844</v>
@@ -16901,7 +16901,7 @@
         <v>44862</v>
       </c>
       <c r="B716" t="n">
-        <v>155.6774597167969</v>
+        <v>155.677490234375</v>
       </c>
       <c r="C716" t="n">
         <v>159.3099975585938</v>
@@ -16924,7 +16924,7 @@
         <v>44865</v>
       </c>
       <c r="B717" t="n">
-        <v>153.6351165771484</v>
+        <v>153.6351318359375</v>
       </c>
       <c r="C717" t="n">
         <v>157.2200012207031</v>
@@ -16947,7 +16947,7 @@
         <v>44866</v>
       </c>
       <c r="B718" t="n">
-        <v>152.7556304931641</v>
+        <v>152.755615234375</v>
       </c>
       <c r="C718" t="n">
         <v>156.3200073242188</v>
@@ -16993,7 +16993,7 @@
         <v>44868</v>
       </c>
       <c r="B720" t="n">
-        <v>154.240966796875</v>
+        <v>154.2409820556641</v>
       </c>
       <c r="C720" t="n">
         <v>157.8399963378906</v>
@@ -17062,7 +17062,7 @@
         <v>44873</v>
       </c>
       <c r="B723" t="n">
-        <v>156.0194854736328</v>
+        <v>156.0195007324219</v>
       </c>
       <c r="C723" t="n">
         <v>159.6600036621094</v>
@@ -17108,7 +17108,7 @@
         <v>44875</v>
       </c>
       <c r="B725" t="n">
-        <v>151.9315338134766</v>
+        <v>151.9315795898438</v>
       </c>
       <c r="C725" t="n">
         <v>155</v>
@@ -17131,7 +17131,7 @@
         <v>44876</v>
       </c>
       <c r="B726" t="n">
-        <v>149.9809265136719</v>
+        <v>149.9809417724609</v>
       </c>
       <c r="C726" t="n">
         <v>153.0099945068359</v>
@@ -17154,7 +17154,7 @@
         <v>44879</v>
       </c>
       <c r="B727" t="n">
-        <v>151.6668853759766</v>
+        <v>151.6669006347656</v>
       </c>
       <c r="C727" t="n">
         <v>154.7299957275391</v>
@@ -17177,7 +17177,7 @@
         <v>44880</v>
       </c>
       <c r="B728" t="n">
-        <v>149.7554931640625</v>
+        <v>149.7555084228516</v>
       </c>
       <c r="C728" t="n">
         <v>152.7799987792969</v>
@@ -17200,7 +17200,7 @@
         <v>44881</v>
       </c>
       <c r="B729" t="n">
-        <v>152.7157135009766</v>
+        <v>152.7156982421875</v>
       </c>
       <c r="C729" t="n">
         <v>155.8000030517578</v>
@@ -17223,7 +17223,7 @@
         <v>44882</v>
       </c>
       <c r="B730" t="n">
-        <v>155.7739562988281</v>
+        <v>155.77392578125</v>
       </c>
       <c r="C730" t="n">
         <v>158.9199981689453</v>
@@ -17246,7 +17246,7 @@
         <v>44883</v>
       </c>
       <c r="B731" t="n">
-        <v>158.7929840087891</v>
+        <v>158.79296875</v>
       </c>
       <c r="C731" t="n">
         <v>162</v>
@@ -17269,7 +17269,7 @@
         <v>44886</v>
       </c>
       <c r="B732" t="n">
-        <v>157.1266174316406</v>
+        <v>157.1266326904297</v>
       </c>
       <c r="C732" t="n">
         <v>160.3000030517578</v>
@@ -17292,7 +17292,7 @@
         <v>44887</v>
       </c>
       <c r="B733" t="n">
-        <v>161.4493560791016</v>
+        <v>161.4493255615234</v>
       </c>
       <c r="C733" t="n">
         <v>164.7100067138672</v>
@@ -17315,7 +17315,7 @@
         <v>44888</v>
       </c>
       <c r="B734" t="n">
-        <v>162.2530822753906</v>
+        <v>162.2531280517578</v>
       </c>
       <c r="C734" t="n">
         <v>165.5299987792969</v>
@@ -17361,7 +17361,7 @@
         <v>44893</v>
       </c>
       <c r="B736" t="n">
-        <v>163.8606567382812</v>
+        <v>163.8606109619141</v>
       </c>
       <c r="C736" t="n">
         <v>167.1699981689453</v>
@@ -17407,7 +17407,7 @@
         <v>44895</v>
       </c>
       <c r="B738" t="n">
-        <v>167.3109436035156</v>
+        <v>167.3109588623047</v>
       </c>
       <c r="C738" t="n">
         <v>170.6900024414062</v>
@@ -17430,7 +17430,7 @@
         <v>44896</v>
       </c>
       <c r="B739" t="n">
-        <v>168.2323455810547</v>
+        <v>168.2323303222656</v>
       </c>
       <c r="C739" t="n">
         <v>171.6300048828125</v>
@@ -17453,7 +17453,7 @@
         <v>44897</v>
       </c>
       <c r="B740" t="n">
-        <v>170.5456237792969</v>
+        <v>170.5456390380859</v>
       </c>
       <c r="C740" t="n">
         <v>173.9900054931641</v>
@@ -17476,7 +17476,7 @@
         <v>44900</v>
       </c>
       <c r="B741" t="n">
-        <v>167.8892669677734</v>
+        <v>167.8892822265625</v>
       </c>
       <c r="C741" t="n">
         <v>171.2799987792969</v>
@@ -17522,7 +17522,7 @@
         <v>44902</v>
       </c>
       <c r="B743" t="n">
-        <v>166.9188537597656</v>
+        <v>166.9188232421875</v>
       </c>
       <c r="C743" t="n">
         <v>170.2899932861328</v>
@@ -17545,7 +17545,7 @@
         <v>44903</v>
       </c>
       <c r="B744" t="n">
-        <v>167.0854949951172</v>
+        <v>167.0854797363281</v>
       </c>
       <c r="C744" t="n">
         <v>170.4600067138672</v>
@@ -17568,7 +17568,7 @@
         <v>44904</v>
       </c>
       <c r="B745" t="n">
-        <v>162.0570373535156</v>
+        <v>162.0570678710938</v>
       </c>
       <c r="C745" t="n">
         <v>165.3300018310547</v>
@@ -17614,7 +17614,7 @@
         <v>44908</v>
       </c>
       <c r="B747" t="n">
-        <v>161.7630004882812</v>
+        <v>161.7629852294922</v>
       </c>
       <c r="C747" t="n">
         <v>165.0299987792969</v>
@@ -17637,7 +17637,7 @@
         <v>44909</v>
       </c>
       <c r="B748" t="n">
-        <v>161.9982299804688</v>
+        <v>161.9982452392578</v>
       </c>
       <c r="C748" t="n">
         <v>165.2700042724609</v>
@@ -17660,7 +17660,7 @@
         <v>44910</v>
       </c>
       <c r="B749" t="n">
-        <v>162.3217010498047</v>
+        <v>162.3217315673828</v>
       </c>
       <c r="C749" t="n">
         <v>165.6000061035156</v>
@@ -17706,7 +17706,7 @@
         <v>44914</v>
       </c>
       <c r="B751" t="n">
-        <v>163.9096527099609</v>
+        <v>163.9096374511719</v>
       </c>
       <c r="C751" t="n">
         <v>167.2200012207031</v>
@@ -17729,7 +17729,7 @@
         <v>44915</v>
       </c>
       <c r="B752" t="n">
-        <v>164.0664672851562</v>
+        <v>164.0664825439453</v>
       </c>
       <c r="C752" t="n">
         <v>167.3800048828125</v>
@@ -17798,7 +17798,7 @@
         <v>44918</v>
       </c>
       <c r="B755" t="n">
-        <v>166.6444091796875</v>
+        <v>166.6443939208984</v>
       </c>
       <c r="C755" t="n">
         <v>170.0099945068359</v>
@@ -17821,7 +17821,7 @@
         <v>44922</v>
       </c>
       <c r="B756" t="n">
-        <v>165.6544036865234</v>
+        <v>165.6543884277344</v>
       </c>
       <c r="C756" t="n">
         <v>169</v>
@@ -17867,7 +17867,7 @@
         <v>44924</v>
       </c>
       <c r="B758" t="n">
-        <v>162.7628173828125</v>
+        <v>162.7628021240234</v>
       </c>
       <c r="C758" t="n">
         <v>166.0500030517578</v>
@@ -17913,7 +17913,7 @@
         <v>44929</v>
       </c>
       <c r="B760" t="n">
-        <v>161.0376586914062</v>
+        <v>161.0376281738281</v>
       </c>
       <c r="C760" t="n">
         <v>164.2899932861328</v>
@@ -18051,7 +18051,7 @@
         <v>44937</v>
       </c>
       <c r="B766" t="n">
-        <v>162.1158599853516</v>
+        <v>162.1158447265625</v>
       </c>
       <c r="C766" t="n">
         <v>165.3899993896484</v>
@@ -18074,7 +18074,7 @@
         <v>44938</v>
       </c>
       <c r="B767" t="n">
-        <v>161.6355590820312</v>
+        <v>161.6355438232422</v>
       </c>
       <c r="C767" t="n">
         <v>164.8999938964844</v>
@@ -18097,7 +18097,7 @@
         <v>44939</v>
       </c>
       <c r="B768" t="n">
-        <v>161.0278472900391</v>
+        <v>161.0278625488281</v>
       </c>
       <c r="C768" t="n">
         <v>164.2799987792969</v>
@@ -18120,7 +18120,7 @@
         <v>44943</v>
       </c>
       <c r="B769" t="n">
-        <v>160.9102325439453</v>
+        <v>160.9102020263672</v>
       </c>
       <c r="C769" t="n">
         <v>164.1600036621094</v>
@@ -18166,7 +18166,7 @@
         <v>44945</v>
       </c>
       <c r="B771" t="n">
-        <v>159.71435546875</v>
+        <v>159.7143707275391</v>
       </c>
       <c r="C771" t="n">
         <v>162.9400024414062</v>
@@ -18212,7 +18212,7 @@
         <v>44949</v>
       </c>
       <c r="B773" t="n">
-        <v>158.5185241699219</v>
+        <v>158.5185394287109</v>
       </c>
       <c r="C773" t="n">
         <v>161.7200012207031</v>
@@ -18235,7 +18235,7 @@
         <v>44950</v>
       </c>
       <c r="B774" t="n">
-        <v>158.2342529296875</v>
+        <v>158.2342681884766</v>
       </c>
       <c r="C774" t="n">
         <v>161.4299926757812</v>
@@ -18258,7 +18258,7 @@
         <v>44951</v>
       </c>
       <c r="B775" t="n">
-        <v>160.2240600585938</v>
+        <v>160.2240905761719</v>
       </c>
       <c r="C775" t="n">
         <v>163.4600067138672</v>
@@ -18281,7 +18281,7 @@
         <v>44952</v>
       </c>
       <c r="B776" t="n">
-        <v>161.6453399658203</v>
+        <v>161.6453552246094</v>
       </c>
       <c r="C776" t="n">
         <v>164.9100036621094</v>
@@ -18304,7 +18304,7 @@
         <v>44953</v>
       </c>
       <c r="B777" t="n">
-        <v>160.9102325439453</v>
+        <v>160.9102020263672</v>
       </c>
       <c r="C777" t="n">
         <v>164.1600036621094</v>
@@ -18327,7 +18327,7 @@
         <v>44956</v>
       </c>
       <c r="B778" t="n">
-        <v>162.0374298095703</v>
+        <v>162.0374450683594</v>
       </c>
       <c r="C778" t="n">
         <v>165.3099975585938</v>
@@ -18350,7 +18350,7 @@
         <v>44957</v>
       </c>
       <c r="B779" t="n">
-        <v>165.6152191162109</v>
+        <v>165.6152038574219</v>
       </c>
       <c r="C779" t="n">
         <v>168.9600067138672</v>
@@ -18373,7 +18373,7 @@
         <v>44958</v>
       </c>
       <c r="B780" t="n">
-        <v>157.8617706298828</v>
+        <v>157.8617858886719</v>
       </c>
       <c r="C780" t="n">
         <v>161.0500030517578</v>
@@ -18419,7 +18419,7 @@
         <v>44960</v>
       </c>
       <c r="B782" t="n">
-        <v>153.6272888183594</v>
+        <v>153.6273040771484</v>
       </c>
       <c r="C782" t="n">
         <v>156.7299957275391</v>
@@ -18465,7 +18465,7 @@
         <v>44964</v>
       </c>
       <c r="B784" t="n">
-        <v>153.6861114501953</v>
+        <v>153.6860961914062</v>
       </c>
       <c r="C784" t="n">
         <v>156.7899932861328</v>
@@ -18488,7 +18488,7 @@
         <v>44965</v>
       </c>
       <c r="B785" t="n">
-        <v>154.7251281738281</v>
+        <v>154.7251434326172</v>
       </c>
       <c r="C785" t="n">
         <v>157.8500061035156</v>
@@ -18557,7 +18557,7 @@
         <v>44970</v>
       </c>
       <c r="B788" t="n">
-        <v>155.9492492675781</v>
+        <v>155.9492340087891</v>
       </c>
       <c r="C788" t="n">
         <v>158.6100006103516</v>
@@ -18580,7 +18580,7 @@
         <v>44971</v>
       </c>
       <c r="B789" t="n">
-        <v>154.72021484375</v>
+        <v>154.7202301025391</v>
       </c>
       <c r="C789" t="n">
         <v>157.3600006103516</v>
@@ -18603,7 +18603,7 @@
         <v>44972</v>
       </c>
       <c r="B790" t="n">
-        <v>156.1458740234375</v>
+        <v>156.1458892822266</v>
       </c>
       <c r="C790" t="n">
         <v>158.8099975585938</v>
@@ -18626,7 +18626,7 @@
         <v>44973</v>
       </c>
       <c r="B791" t="n">
-        <v>157.7780456542969</v>
+        <v>157.7780303955078</v>
       </c>
       <c r="C791" t="n">
         <v>160.4700012207031</v>
@@ -18649,7 +18649,7 @@
         <v>44974</v>
       </c>
       <c r="B792" t="n">
-        <v>158.7809600830078</v>
+        <v>158.7809143066406</v>
       </c>
       <c r="C792" t="n">
         <v>161.4900054931641</v>
@@ -18672,7 +18672,7 @@
         <v>44978</v>
       </c>
       <c r="B793" t="n">
-        <v>158.141845703125</v>
+        <v>158.1418304443359</v>
       </c>
       <c r="C793" t="n">
         <v>160.8399963378906</v>
@@ -18695,7 +18695,7 @@
         <v>44979</v>
       </c>
       <c r="B794" t="n">
-        <v>157.4437408447266</v>
+        <v>157.4437561035156</v>
       </c>
       <c r="C794" t="n">
         <v>160.1300048828125</v>
@@ -18764,7 +18764,7 @@
         <v>44984</v>
       </c>
       <c r="B797" t="n">
-        <v>154.0024566650391</v>
+        <v>154.0024719238281</v>
       </c>
       <c r="C797" t="n">
         <v>156.6300048828125</v>
@@ -18810,7 +18810,7 @@
         <v>44986</v>
       </c>
       <c r="B799" t="n">
-        <v>153.8844757080078</v>
+        <v>153.8844909667969</v>
       </c>
       <c r="C799" t="n">
         <v>156.5099945068359</v>
@@ -18833,7 +18833,7 @@
         <v>44987</v>
       </c>
       <c r="B800" t="n">
-        <v>152.3014526367188</v>
+        <v>152.3014831542969</v>
       </c>
       <c r="C800" t="n">
         <v>154.8999938964844</v>
@@ -18856,7 +18856,7 @@
         <v>44988</v>
       </c>
       <c r="B801" t="n">
-        <v>153.530517578125</v>
+        <v>153.5305023193359</v>
       </c>
       <c r="C801" t="n">
         <v>156.1499938964844</v>
@@ -18879,7 +18879,7 @@
         <v>44991</v>
       </c>
       <c r="B802" t="n">
-        <v>153.8353118896484</v>
+        <v>153.8353271484375</v>
       </c>
       <c r="C802" t="n">
         <v>156.4600067138672</v>
@@ -18971,7 +18971,7 @@
         <v>44995</v>
       </c>
       <c r="B806" t="n">
-        <v>147.0903930664062</v>
+        <v>147.0903778076172</v>
       </c>
       <c r="C806" t="n">
         <v>149.6000061035156</v>
@@ -18994,7 +18994,7 @@
         <v>44998</v>
       </c>
       <c r="B807" t="n">
-        <v>145.8810119628906</v>
+        <v>145.8810272216797</v>
       </c>
       <c r="C807" t="n">
         <v>148.3699951171875</v>
@@ -19017,7 +19017,7 @@
         <v>44999</v>
       </c>
       <c r="B808" t="n">
-        <v>146.7855987548828</v>
+        <v>146.7855682373047</v>
       </c>
       <c r="C808" t="n">
         <v>149.2899932861328</v>
@@ -19040,7 +19040,7 @@
         <v>45000</v>
       </c>
       <c r="B809" t="n">
-        <v>147.1002349853516</v>
+        <v>147.1002502441406</v>
       </c>
       <c r="C809" t="n">
         <v>149.6100006103516</v>
@@ -19063,7 +19063,7 @@
         <v>45001</v>
       </c>
       <c r="B810" t="n">
-        <v>149.4992828369141</v>
+        <v>149.4993133544922</v>
       </c>
       <c r="C810" t="n">
         <v>152.0500030517578</v>
@@ -19086,7 +19086,7 @@
         <v>45002</v>
       </c>
       <c r="B811" t="n">
-        <v>149.4698333740234</v>
+        <v>149.4698028564453</v>
       </c>
       <c r="C811" t="n">
         <v>152.0200042724609</v>
@@ -19109,7 +19109,7 @@
         <v>45005</v>
       </c>
       <c r="B812" t="n">
-        <v>151.2789306640625</v>
+        <v>151.2789459228516</v>
       </c>
       <c r="C812" t="n">
         <v>153.8600006103516</v>
@@ -19155,7 +19155,7 @@
         <v>45007</v>
       </c>
       <c r="B814" t="n">
-        <v>150.865966796875</v>
+        <v>150.8659820556641</v>
       </c>
       <c r="C814" t="n">
         <v>153.4400024414062</v>
@@ -19178,7 +19178,7 @@
         <v>45008</v>
       </c>
       <c r="B815" t="n">
-        <v>148.3980712890625</v>
+        <v>148.3980865478516</v>
       </c>
       <c r="C815" t="n">
         <v>150.9299926757812</v>
@@ -19201,7 +19201,7 @@
         <v>45009</v>
       </c>
       <c r="B816" t="n">
-        <v>153.7861785888672</v>
+        <v>153.7861633300781</v>
       </c>
       <c r="C816" t="n">
         <v>156.4100036621094</v>
@@ -19224,7 +19224,7 @@
         <v>45012</v>
       </c>
       <c r="B817" t="n">
-        <v>154.0614624023438</v>
+        <v>154.0614471435547</v>
       </c>
       <c r="C817" t="n">
         <v>156.6900024414062</v>
@@ -19247,7 +19247,7 @@
         <v>45013</v>
       </c>
       <c r="B818" t="n">
-        <v>155.3494720458984</v>
+        <v>155.3494873046875</v>
       </c>
       <c r="C818" t="n">
         <v>158</v>
@@ -19270,7 +19270,7 @@
         <v>45014</v>
       </c>
       <c r="B819" t="n">
-        <v>156.3032073974609</v>
+        <v>156.30322265625</v>
       </c>
       <c r="C819" t="n">
         <v>158.9700012207031</v>
@@ -19316,7 +19316,7 @@
         <v>45016</v>
       </c>
       <c r="B821" t="n">
-        <v>157.4241027832031</v>
+        <v>157.4240875244141</v>
       </c>
       <c r="C821" t="n">
         <v>160.1100006103516</v>
@@ -19339,7 +19339,7 @@
         <v>45019</v>
       </c>
       <c r="B822" t="n">
-        <v>159.5576782226562</v>
+        <v>159.5576934814453</v>
       </c>
       <c r="C822" t="n">
         <v>162.2799987792969</v>
@@ -19385,7 +19385,7 @@
         <v>45021</v>
       </c>
       <c r="B824" t="n">
-        <v>164.5524749755859</v>
+        <v>164.5524597167969</v>
       </c>
       <c r="C824" t="n">
         <v>167.3600006103516</v>
@@ -19408,7 +19408,7 @@
         <v>45022</v>
       </c>
       <c r="B825" t="n">
-        <v>163.5594177246094</v>
+        <v>163.5594024658203</v>
       </c>
       <c r="C825" t="n">
         <v>166.3500061035156</v>
@@ -19431,7 +19431,7 @@
         <v>45026</v>
       </c>
       <c r="B826" t="n">
-        <v>163.5889282226562</v>
+        <v>163.5889129638672</v>
       </c>
       <c r="C826" t="n">
         <v>166.3800048828125</v>
@@ -19454,7 +19454,7 @@
         <v>45027</v>
       </c>
       <c r="B827" t="n">
-        <v>163.7560882568359</v>
+        <v>163.7560729980469</v>
       </c>
       <c r="C827" t="n">
         <v>166.5500030517578</v>
@@ -19523,7 +19523,7 @@
         <v>45030</v>
       </c>
       <c r="B830" t="n">
-        <v>164.3263397216797</v>
+        <v>164.3263244628906</v>
       </c>
       <c r="C830" t="n">
         <v>167.1300048828125</v>
@@ -19569,7 +19569,7 @@
         <v>45034</v>
       </c>
       <c r="B832" t="n">
-        <v>164.6016082763672</v>
+        <v>164.6016387939453</v>
       </c>
       <c r="C832" t="n">
         <v>167.4100036621094</v>
@@ -19592,7 +19592,7 @@
         <v>45035</v>
       </c>
       <c r="B833" t="n">
-        <v>161.7207641601562</v>
+        <v>161.7207794189453</v>
       </c>
       <c r="C833" t="n">
         <v>164.4799957275391</v>
@@ -19615,7 +19615,7 @@
         <v>45036</v>
       </c>
       <c r="B834" t="n">
-        <v>163.1759490966797</v>
+        <v>163.1759643554688</v>
       </c>
       <c r="C834" t="n">
         <v>165.9600067138672</v>
@@ -19661,7 +19661,7 @@
         <v>45040</v>
       </c>
       <c r="B836" t="n">
-        <v>164.8966064453125</v>
+        <v>164.8965911865234</v>
       </c>
       <c r="C836" t="n">
         <v>167.7100067138672</v>
@@ -19707,7 +19707,7 @@
         <v>45042</v>
       </c>
       <c r="B838" t="n">
-        <v>162.7138366699219</v>
+        <v>162.7138061523438</v>
       </c>
       <c r="C838" t="n">
         <v>165.4900054931641</v>
@@ -19730,7 +19730,7 @@
         <v>45043</v>
       </c>
       <c r="B839" t="n">
-        <v>164.6016082763672</v>
+        <v>164.6016387939453</v>
       </c>
       <c r="C839" t="n">
         <v>167.4100036621094</v>
@@ -19776,7 +19776,7 @@
         <v>45047</v>
       </c>
       <c r="B841" t="n">
-        <v>163.9920043945312</v>
+        <v>163.9920196533203</v>
       </c>
       <c r="C841" t="n">
         <v>166.7899932861328</v>
@@ -19799,7 +19799,7 @@
         <v>45048</v>
       </c>
       <c r="B842" t="n">
-        <v>166.3222808837891</v>
+        <v>166.322265625</v>
       </c>
       <c r="C842" t="n">
         <v>169.1600036621094</v>
@@ -19822,7 +19822,7 @@
         <v>45049</v>
       </c>
       <c r="B843" t="n">
-        <v>164.0903625488281</v>
+        <v>164.09033203125</v>
       </c>
       <c r="C843" t="n">
         <v>166.8899993896484</v>
@@ -19845,7 +19845,7 @@
         <v>45050</v>
       </c>
       <c r="B844" t="n">
-        <v>163.7953796386719</v>
+        <v>163.7953643798828</v>
       </c>
       <c r="C844" t="n">
         <v>166.5899963378906</v>
@@ -19868,7 +19868,7 @@
         <v>45051</v>
       </c>
       <c r="B845" t="n">
-        <v>165.1718902587891</v>
+        <v>165.1719055175781</v>
       </c>
       <c r="C845" t="n">
         <v>167.9900054931641</v>
@@ -19891,7 +19891,7 @@
         <v>45054</v>
       </c>
       <c r="B846" t="n">
-        <v>165.3882141113281</v>
+        <v>165.3882293701172</v>
       </c>
       <c r="C846" t="n">
         <v>168.2100067138672</v>
@@ -19937,7 +19937,7 @@
         <v>45056</v>
       </c>
       <c r="B848" t="n">
-        <v>166.6565704345703</v>
+        <v>166.6565551757812</v>
       </c>
       <c r="C848" t="n">
         <v>169.5</v>
@@ -19960,7 +19960,7 @@
         <v>45057</v>
       </c>
       <c r="B849" t="n">
-        <v>169.0477447509766</v>
+        <v>169.0477142333984</v>
       </c>
       <c r="C849" t="n">
         <v>171.4400024414062</v>
@@ -19983,7 +19983,7 @@
         <v>45058</v>
       </c>
       <c r="B850" t="n">
-        <v>168.6039886474609</v>
+        <v>168.6040191650391</v>
       </c>
       <c r="C850" t="n">
         <v>170.9900054931641</v>
@@ -20006,7 +20006,7 @@
         <v>45061</v>
       </c>
       <c r="B851" t="n">
-        <v>170.9212188720703</v>
+        <v>170.9211883544922</v>
       </c>
       <c r="C851" t="n">
         <v>173.3399963378906</v>
@@ -20029,7 +20029,7 @@
         <v>45062</v>
       </c>
       <c r="B852" t="n">
-        <v>172.1636352539062</v>
+        <v>172.1636505126953</v>
       </c>
       <c r="C852" t="n">
         <v>174.6000061035156</v>
@@ -20052,7 +20052,7 @@
         <v>45063</v>
       </c>
       <c r="B853" t="n">
-        <v>172.3509826660156</v>
+        <v>172.3509674072266</v>
       </c>
       <c r="C853" t="n">
         <v>174.7899932861328</v>
@@ -20121,7 +20121,7 @@
         <v>45068</v>
       </c>
       <c r="B856" t="n">
-        <v>169.846435546875</v>
+        <v>169.8464202880859</v>
       </c>
       <c r="C856" t="n">
         <v>172.25</v>
@@ -20144,7 +20144,7 @@
         <v>45069</v>
       </c>
       <c r="B857" t="n">
-        <v>168.8702239990234</v>
+        <v>168.8702392578125</v>
       </c>
       <c r="C857" t="n">
         <v>171.2599945068359</v>
@@ -20167,7 +20167,7 @@
         <v>45070</v>
       </c>
       <c r="B858" t="n">
-        <v>168.6730194091797</v>
+        <v>168.6730346679688</v>
       </c>
       <c r="C858" t="n">
         <v>171.0599975585938</v>
@@ -20190,7 +20190,7 @@
         <v>45071</v>
       </c>
       <c r="B859" t="n">
-        <v>167.7954559326172</v>
+        <v>167.7954406738281</v>
       </c>
       <c r="C859" t="n">
         <v>170.1699981689453</v>
@@ -20236,7 +20236,7 @@
         <v>45076</v>
       </c>
       <c r="B861" t="n">
-        <v>163.6934967041016</v>
+        <v>163.6934814453125</v>
       </c>
       <c r="C861" t="n">
         <v>166.0099945068359</v>
@@ -20259,7 +20259,7 @@
         <v>45077</v>
       </c>
       <c r="B862" t="n">
-        <v>167.7757263183594</v>
+        <v>167.7757110595703</v>
       </c>
       <c r="C862" t="n">
         <v>170.1499938964844</v>
@@ -20282,7 +20282,7 @@
         <v>45078</v>
       </c>
       <c r="B863" t="n">
-        <v>170.1816711425781</v>
+        <v>170.1816864013672</v>
       </c>
       <c r="C863" t="n">
         <v>172.5899963378906</v>
@@ -20305,7 +20305,7 @@
         <v>45079</v>
       </c>
       <c r="B864" t="n">
-        <v>172.0847778320312</v>
+        <v>172.0847625732422</v>
       </c>
       <c r="C864" t="n">
         <v>174.5200042724609</v>
@@ -20351,7 +20351,7 @@
         <v>45083</v>
       </c>
       <c r="B866" t="n">
-        <v>171.9368591308594</v>
+        <v>171.9368438720703</v>
       </c>
       <c r="C866" t="n">
         <v>174.3699951171875</v>
@@ -20397,7 +20397,7 @@
         <v>45085</v>
       </c>
       <c r="B868" t="n">
-        <v>173.9878234863281</v>
+        <v>173.9878082275391</v>
       </c>
       <c r="C868" t="n">
         <v>176.4499969482422</v>
@@ -20420,7 +20420,7 @@
         <v>45086</v>
       </c>
       <c r="B869" t="n">
-        <v>175.7331237792969</v>
+        <v>175.7331085205078</v>
       </c>
       <c r="C869" t="n">
         <v>178.2200012207031</v>
@@ -20443,7 +20443,7 @@
         <v>45089</v>
       </c>
       <c r="B870" t="n">
-        <v>176.8177947998047</v>
+        <v>176.8177642822266</v>
       </c>
       <c r="C870" t="n">
         <v>179.3200073242188</v>
@@ -20466,7 +20466,7 @@
         <v>45090</v>
       </c>
       <c r="B871" t="n">
-        <v>177.2812042236328</v>
+        <v>177.2811889648438</v>
       </c>
       <c r="C871" t="n">
         <v>179.7899932861328</v>
@@ -20489,7 +20489,7 @@
         <v>45091</v>
       </c>
       <c r="B872" t="n">
-        <v>176.551513671875</v>
+        <v>176.5515594482422</v>
       </c>
       <c r="C872" t="n">
         <v>179.0500030517578</v>
@@ -20512,7 +20512,7 @@
         <v>45092</v>
       </c>
       <c r="B873" t="n">
-        <v>179.3519287109375</v>
+        <v>179.3519134521484</v>
       </c>
       <c r="C873" t="n">
         <v>181.8899993896484</v>
@@ -20535,7 +20535,7 @@
         <v>45093</v>
       </c>
       <c r="B874" t="n">
-        <v>180.4562835693359</v>
+        <v>180.4562683105469</v>
       </c>
       <c r="C874" t="n">
         <v>183.0099945068359</v>
@@ -20581,7 +20581,7 @@
         <v>45098</v>
       </c>
       <c r="B876" t="n">
-        <v>183.2369232177734</v>
+        <v>183.2369384765625</v>
       </c>
       <c r="C876" t="n">
         <v>185.8300018310547</v>
@@ -20650,7 +20650,7 @@
         <v>45103</v>
       </c>
       <c r="B879" t="n">
-        <v>185.1399993896484</v>
+        <v>185.1399841308594</v>
       </c>
       <c r="C879" t="n">
         <v>187.7599945068359</v>
@@ -20811,7 +20811,7 @@
         <v>45113</v>
       </c>
       <c r="B886" t="n">
-        <v>189.5081787109375</v>
+        <v>189.5081939697266</v>
       </c>
       <c r="C886" t="n">
         <v>192.1900024414062</v>
@@ -20857,7 +20857,7 @@
         <v>45117</v>
       </c>
       <c r="B888" t="n">
-        <v>190.1392364501953</v>
+        <v>190.1392517089844</v>
       </c>
       <c r="C888" t="n">
         <v>192.8300018310547</v>
@@ -20880,7 +20880,7 @@
         <v>45118</v>
       </c>
       <c r="B889" t="n">
-        <v>190.5238037109375</v>
+        <v>190.5238189697266</v>
       </c>
       <c r="C889" t="n">
         <v>193.2200012207031</v>
@@ -20949,7 +20949,7 @@
         <v>45121</v>
       </c>
       <c r="B892" t="n">
-        <v>188.7489166259766</v>
+        <v>188.7489318847656</v>
       </c>
       <c r="C892" t="n">
         <v>191.4199981689453</v>
@@ -20995,7 +20995,7 @@
         <v>45125</v>
       </c>
       <c r="B894" t="n">
-        <v>189.7053985595703</v>
+        <v>189.7053833007812</v>
       </c>
       <c r="C894" t="n">
         <v>192.3899993896484</v>
@@ -21018,7 +21018,7 @@
         <v>45126</v>
       </c>
       <c r="B895" t="n">
-        <v>189.2616729736328</v>
+        <v>189.2616577148438</v>
       </c>
       <c r="C895" t="n">
         <v>191.9400024414062</v>
@@ -21110,7 +21110,7 @@
         <v>45132</v>
       </c>
       <c r="B899" t="n">
-        <v>189.2123565673828</v>
+        <v>189.2123718261719</v>
       </c>
       <c r="C899" t="n">
         <v>191.8899993896484</v>
@@ -21133,7 +21133,7 @@
         <v>45133</v>
       </c>
       <c r="B900" t="n">
-        <v>185.0906982421875</v>
+        <v>185.0907135009766</v>
       </c>
       <c r="C900" t="n">
         <v>187.7100067138672</v>
@@ -21156,7 +21156,7 @@
         <v>45134</v>
       </c>
       <c r="B901" t="n">
-        <v>184.7160034179688</v>
+        <v>184.7159729003906</v>
       </c>
       <c r="C901" t="n">
         <v>187.3300018310547</v>
@@ -21202,7 +21202,7 @@
         <v>45138</v>
       </c>
       <c r="B903" t="n">
-        <v>184.2919769287109</v>
+        <v>184.2919921875</v>
       </c>
       <c r="C903" t="n">
         <v>186.8999938964844</v>
@@ -21225,7 +21225,7 @@
         <v>45139</v>
       </c>
       <c r="B904" t="n">
-        <v>186.4613037109375</v>
+        <v>186.4613189697266</v>
       </c>
       <c r="C904" t="n">
         <v>189.1000061035156</v>
@@ -21248,7 +21248,7 @@
         <v>45140</v>
       </c>
       <c r="B905" t="n">
-        <v>188.7587890625</v>
+        <v>188.7587738037109</v>
       </c>
       <c r="C905" t="n">
         <v>191.4299926757812</v>
@@ -21271,7 +21271,7 @@
         <v>45141</v>
       </c>
       <c r="B906" t="n">
-        <v>188.6897735595703</v>
+        <v>188.6897583007812</v>
       </c>
       <c r="C906" t="n">
         <v>191.3600006103516</v>
@@ -21317,7 +21317,7 @@
         <v>45145</v>
       </c>
       <c r="B908" t="n">
-        <v>183.9764709472656</v>
+        <v>183.9764862060547</v>
       </c>
       <c r="C908" t="n">
         <v>186.5800018310547</v>
@@ -21340,7 +21340,7 @@
         <v>45146</v>
       </c>
       <c r="B909" t="n">
-        <v>182.7833404541016</v>
+        <v>182.7833557128906</v>
       </c>
       <c r="C909" t="n">
         <v>185.3699951171875</v>
@@ -21363,7 +21363,7 @@
         <v>45147</v>
       </c>
       <c r="B910" t="n">
-        <v>183.1186218261719</v>
+        <v>183.1186065673828</v>
       </c>
       <c r="C910" t="n">
         <v>185.7100067138672</v>
@@ -21386,7 +21386,7 @@
         <v>45148</v>
       </c>
       <c r="B911" t="n">
-        <v>184.9030609130859</v>
+        <v>184.903076171875</v>
       </c>
       <c r="C911" t="n">
         <v>187.0299987792969</v>
@@ -21409,7 +21409,7 @@
         <v>45149</v>
       </c>
       <c r="B912" t="n">
-        <v>185.2392120361328</v>
+        <v>185.2391967773438</v>
       </c>
       <c r="C912" t="n">
         <v>187.3699951171875</v>
@@ -21432,7 +21432,7 @@
         <v>45152</v>
       </c>
       <c r="B913" t="n">
-        <v>185.4962615966797</v>
+        <v>185.4962463378906</v>
       </c>
       <c r="C913" t="n">
         <v>187.6300048828125</v>
@@ -21478,7 +21478,7 @@
         <v>45154</v>
       </c>
       <c r="B915" t="n">
-        <v>181.8976440429688</v>
+        <v>181.8976287841797</v>
       </c>
       <c r="C915" t="n">
         <v>183.9900054931641</v>
@@ -21524,7 +21524,7 @@
         <v>45156</v>
       </c>
       <c r="B917" t="n">
-        <v>178.3484649658203</v>
+        <v>178.3484802246094</v>
       </c>
       <c r="C917" t="n">
         <v>180.3999938964844</v>
@@ -21570,7 +21570,7 @@
         <v>45160</v>
       </c>
       <c r="B919" t="n">
-        <v>175.9362182617188</v>
+        <v>175.9362335205078</v>
       </c>
       <c r="C919" t="n">
         <v>177.9600067138672</v>
@@ -21593,7 +21593,7 @@
         <v>45161</v>
       </c>
       <c r="B920" t="n">
-        <v>175.7484130859375</v>
+        <v>175.7483978271484</v>
       </c>
       <c r="C920" t="n">
         <v>177.7700042724609</v>
@@ -21639,7 +21639,7 @@
         <v>45163</v>
       </c>
       <c r="B922" t="n">
-        <v>177.4389190673828</v>
+        <v>177.4389343261719</v>
       </c>
       <c r="C922" t="n">
         <v>179.4799957275391</v>
@@ -21662,7 +21662,7 @@
         <v>45166</v>
       </c>
       <c r="B923" t="n">
-        <v>178.3386077880859</v>
+        <v>178.3385772705078</v>
       </c>
       <c r="C923" t="n">
         <v>180.3899993896484</v>
@@ -21708,7 +21708,7 @@
         <v>45168</v>
       </c>
       <c r="B925" t="n">
-        <v>176.8655395507812</v>
+        <v>176.8655242919922</v>
       </c>
       <c r="C925" t="n">
         <v>178.8999938964844</v>
@@ -21731,7 +21731,7 @@
         <v>45169</v>
       </c>
       <c r="B926" t="n">
-        <v>173.9787292480469</v>
+        <v>173.9787445068359</v>
       </c>
       <c r="C926" t="n">
         <v>175.9799957275391</v>
@@ -21754,7 +21754,7 @@
         <v>45170</v>
       </c>
       <c r="B927" t="n">
-        <v>172.9703521728516</v>
+        <v>172.9703369140625</v>
       </c>
       <c r="C927" t="n">
         <v>174.9600067138672</v>
@@ -21823,7 +21823,7 @@
         <v>45176</v>
       </c>
       <c r="B930" t="n">
-        <v>176.1537170410156</v>
+        <v>176.1537322998047</v>
       </c>
       <c r="C930" t="n">
         <v>178.1799926757812</v>
@@ -21869,7 +21869,7 @@
         <v>45180</v>
       </c>
       <c r="B932" t="n">
-        <v>175.7088470458984</v>
+        <v>175.7088317871094</v>
       </c>
       <c r="C932" t="n">
         <v>177.7299957275391</v>
@@ -21938,7 +21938,7 @@
         <v>45183</v>
       </c>
       <c r="B935" t="n">
-        <v>174.9772338867188</v>
+        <v>174.9772491455078</v>
       </c>
       <c r="C935" t="n">
         <v>176.9900054931641</v>
@@ -21961,7 +21961,7 @@
         <v>45184</v>
       </c>
       <c r="B936" t="n">
-        <v>176.2624359130859</v>
+        <v>176.2624664306641</v>
       </c>
       <c r="C936" t="n">
         <v>178.2899932861328</v>
@@ -22007,7 +22007,7 @@
         <v>45188</v>
       </c>
       <c r="B938" t="n">
-        <v>177.6959686279297</v>
+        <v>177.6959838867188</v>
       </c>
       <c r="C938" t="n">
         <v>179.7400054931641</v>
@@ -22076,7 +22076,7 @@
         <v>45191</v>
       </c>
       <c r="B941" t="n">
-        <v>183.8353576660156</v>
+        <v>183.8353729248047</v>
       </c>
       <c r="C941" t="n">
         <v>185.9499969482422</v>
@@ -22099,7 +22099,7 @@
         <v>45194</v>
       </c>
       <c r="B942" t="n">
-        <v>185.0909118652344</v>
+        <v>185.0909271240234</v>
       </c>
       <c r="C942" t="n">
         <v>187.2200012207031</v>
@@ -22145,7 +22145,7 @@
         <v>45196</v>
       </c>
       <c r="B944" t="n">
-        <v>183.0543518066406</v>
+        <v>183.0543365478516</v>
       </c>
       <c r="C944" t="n">
         <v>185.1600036621094</v>
@@ -22168,7 +22168,7 @@
         <v>45197</v>
       </c>
       <c r="B945" t="n">
-        <v>180.7804870605469</v>
+        <v>180.7805023193359</v>
       </c>
       <c r="C945" t="n">
         <v>182.8600006103516</v>
@@ -22191,7 +22191,7 @@
         <v>45198</v>
       </c>
       <c r="B946" t="n">
-        <v>177.9233551025391</v>
+        <v>177.9233703613281</v>
       </c>
       <c r="C946" t="n">
         <v>179.9700012207031</v>
@@ -22214,7 +22214,7 @@
         <v>45201</v>
       </c>
       <c r="B947" t="n">
-        <v>177.0434722900391</v>
+        <v>177.0435028076172</v>
       </c>
       <c r="C947" t="n">
         <v>179.0800018310547</v>
@@ -22237,7 +22237,7 @@
         <v>45202</v>
       </c>
       <c r="B948" t="n">
-        <v>178.2199401855469</v>
+        <v>178.2199554443359</v>
       </c>
       <c r="C948" t="n">
         <v>180.2700042724609</v>
@@ -22260,7 +22260,7 @@
         <v>45203</v>
       </c>
       <c r="B949" t="n">
-        <v>180.5827789306641</v>
+        <v>180.582763671875</v>
       </c>
       <c r="C949" t="n">
         <v>182.6600036621094</v>
@@ -22283,7 +22283,7 @@
         <v>45204</v>
       </c>
       <c r="B950" t="n">
-        <v>182.9356994628906</v>
+        <v>182.9356842041016</v>
       </c>
       <c r="C950" t="n">
         <v>185.0399932861328</v>
@@ -22306,7 +22306,7 @@
         <v>45205</v>
       </c>
       <c r="B951" t="n">
-        <v>181.7592315673828</v>
+        <v>181.7592468261719</v>
       </c>
       <c r="C951" t="n">
         <v>183.8500061035156</v>
@@ -22329,7 +22329,7 @@
         <v>45208</v>
       </c>
       <c r="B952" t="n">
-        <v>184.0726318359375</v>
+        <v>184.0726165771484</v>
       </c>
       <c r="C952" t="n">
         <v>186.1900024414062</v>
@@ -22352,7 +22352,7 @@
         <v>45209</v>
       </c>
       <c r="B953" t="n">
-        <v>185.8323974609375</v>
+        <v>185.8323822021484</v>
       </c>
       <c r="C953" t="n">
         <v>187.9700012207031</v>
@@ -22490,7 +22490,7 @@
         <v>45217</v>
       </c>
       <c r="B959" t="n">
-        <v>187.3944244384766</v>
+        <v>187.3944091796875</v>
       </c>
       <c r="C959" t="n">
         <v>189.5500030517578</v>
@@ -22513,7 +22513,7 @@
         <v>45218</v>
       </c>
       <c r="B960" t="n">
-        <v>187.7305755615234</v>
+        <v>187.7305450439453</v>
       </c>
       <c r="C960" t="n">
         <v>189.8899993896484</v>
@@ -22559,7 +22559,7 @@
         <v>45222</v>
       </c>
       <c r="B962" t="n">
-        <v>186.6727142333984</v>
+        <v>186.6727447509766</v>
       </c>
       <c r="C962" t="n">
         <v>188.8200073242188</v>
@@ -22582,7 +22582,7 @@
         <v>45223</v>
       </c>
       <c r="B963" t="n">
-        <v>186.8605346679688</v>
+        <v>186.8605499267578</v>
       </c>
       <c r="C963" t="n">
         <v>189.0099945068359</v>
@@ -22605,7 +22605,7 @@
         <v>45224</v>
       </c>
       <c r="B964" t="n">
-        <v>186.9692993164062</v>
+        <v>186.9693145751953</v>
       </c>
       <c r="C964" t="n">
         <v>189.1199951171875</v>
@@ -22651,7 +22651,7 @@
         <v>45226</v>
       </c>
       <c r="B966" t="n">
-        <v>185.5061340332031</v>
+        <v>185.5061492919922</v>
       </c>
       <c r="C966" t="n">
         <v>187.6399993896484</v>
@@ -22697,7 +22697,7 @@
         <v>45230</v>
       </c>
       <c r="B968" t="n">
-        <v>183.04443359375</v>
+        <v>183.0444641113281</v>
       </c>
       <c r="C968" t="n">
         <v>185.1499938964844</v>
@@ -22743,7 +22743,7 @@
         <v>45232</v>
       </c>
       <c r="B970" t="n">
-        <v>189.9945220947266</v>
+        <v>189.9945068359375</v>
       </c>
       <c r="C970" t="n">
         <v>192.1799926757812</v>
@@ -22766,7 +22766,7 @@
         <v>45233</v>
       </c>
       <c r="B971" t="n">
-        <v>192.9505004882812</v>
+        <v>192.9505157470703</v>
       </c>
       <c r="C971" t="n">
         <v>195.1699981689453</v>
@@ -22812,7 +22812,7 @@
         <v>45237</v>
       </c>
       <c r="B973" t="n">
-        <v>193.8402709960938</v>
+        <v>193.8402862548828</v>
       </c>
       <c r="C973" t="n">
         <v>196.0700073242188</v>
@@ -22973,7 +22973,7 @@
         <v>45246</v>
       </c>
       <c r="B980" t="n">
-        <v>195.1764678955078</v>
+        <v>195.1764526367188</v>
       </c>
       <c r="C980" t="n">
         <v>196.9100036621094</v>
@@ -23065,7 +23065,7 @@
         <v>45252</v>
       </c>
       <c r="B984" t="n">
-        <v>197.9220733642578</v>
+        <v>197.9220581054688</v>
       </c>
       <c r="C984" t="n">
         <v>199.6799926757812</v>
@@ -23088,7 +23088,7 @@
         <v>45254</v>
       </c>
       <c r="B985" t="n">
-        <v>199.5278015136719</v>
+        <v>199.5278167724609</v>
       </c>
       <c r="C985" t="n">
         <v>201.3000030517578</v>
@@ -23134,7 +23134,7 @@
         <v>45258</v>
       </c>
       <c r="B987" t="n">
-        <v>199.5278015136719</v>
+        <v>199.5278167724609</v>
       </c>
       <c r="C987" t="n">
         <v>201.3000030517578</v>
@@ -23203,7 +23203,7 @@
         <v>45261</v>
       </c>
       <c r="B990" t="n">
-        <v>202.2932586669922</v>
+        <v>202.2932434082031</v>
       </c>
       <c r="C990" t="n">
         <v>204.0899963378906</v>
@@ -23249,7 +23249,7 @@
         <v>45265</v>
       </c>
       <c r="B992" t="n">
-        <v>201.9364166259766</v>
+        <v>201.9364013671875</v>
       </c>
       <c r="C992" t="n">
         <v>203.7299957275391</v>
@@ -23295,7 +23295,7 @@
         <v>45267</v>
       </c>
       <c r="B994" t="n">
-        <v>198.4474334716797</v>
+        <v>198.4474182128906</v>
       </c>
       <c r="C994" t="n">
         <v>200.2100067138672</v>
@@ -23341,7 +23341,7 @@
         <v>45271</v>
       </c>
       <c r="B996" t="n">
-        <v>201.0641784667969</v>
+        <v>201.0641937255859</v>
       </c>
       <c r="C996" t="n">
         <v>202.8500061035156</v>
@@ -23364,7 +23364,7 @@
         <v>45272</v>
       </c>
       <c r="B997" t="n">
-        <v>202.1544647216797</v>
+        <v>202.1544799804688</v>
       </c>
       <c r="C997" t="n">
         <v>203.9499969482422</v>
@@ -23387,7 +23387,7 @@
         <v>45273</v>
       </c>
       <c r="B998" t="n">
-        <v>201.9264984130859</v>
+        <v>201.926513671875</v>
       </c>
       <c r="C998" t="n">
         <v>203.7200012207031</v>
@@ -23410,7 +23410,7 @@
         <v>45274</v>
       </c>
       <c r="B999" t="n">
-        <v>199.7260437011719</v>
+        <v>199.7260589599609</v>
       </c>
       <c r="C999" t="n">
         <v>201.5</v>
@@ -23433,7 +23433,7 @@
         <v>45275</v>
       </c>
       <c r="B1000" t="n">
-        <v>198.5663604736328</v>
+        <v>198.5663452148438</v>
       </c>
       <c r="C1000" t="n">
         <v>200.3300018310547</v>
@@ -23456,7 +23456,7 @@
         <v>45278</v>
       </c>
       <c r="B1001" t="n">
-        <v>198.3086395263672</v>
+        <v>198.3086547851562</v>
       </c>
       <c r="C1001" t="n">
         <v>200.0700073242188</v>
@@ -23548,7 +23548,7 @@
         <v>45282</v>
       </c>
       <c r="B1005" t="n">
-        <v>201.2524719238281</v>
+        <v>201.2524871826172</v>
       </c>
       <c r="C1005" t="n">
         <v>203.0399932861328</v>
@@ -23571,7 +23571,7 @@
         <v>45286</v>
       </c>
       <c r="B1006" t="n">
-        <v>202.2932586669922</v>
+        <v>202.2932434082031</v>
       </c>
       <c r="C1006" t="n">
         <v>204.0899963378906</v>
@@ -23686,7 +23686,7 @@
         <v>45294</v>
       </c>
       <c r="B1011" t="n">
-        <v>208.4783325195312</v>
+        <v>208.4783172607422</v>
       </c>
       <c r="C1011" t="n">
         <v>210.3300018310547</v>
@@ -23801,7 +23801,7 @@
         <v>45301</v>
       </c>
       <c r="B1016" t="n">
-        <v>214.2272644042969</v>
+        <v>214.2272491455078</v>
       </c>
       <c r="C1016" t="n">
         <v>216.1300048828125</v>
@@ -23824,7 +23824,7 @@
         <v>45302</v>
       </c>
       <c r="B1017" t="n">
-        <v>217.0026092529297</v>
+        <v>217.0025939941406</v>
       </c>
       <c r="C1017" t="n">
         <v>218.9299926757812</v>
@@ -23847,7 +23847,7 @@
         <v>45303</v>
       </c>
       <c r="B1018" t="n">
-        <v>217.4981842041016</v>
+        <v>217.4981689453125</v>
       </c>
       <c r="C1018" t="n">
         <v>219.4299926757812</v>
@@ -23916,7 +23916,7 @@
         <v>45309</v>
       </c>
       <c r="B1021" t="n">
-        <v>218.8462371826172</v>
+        <v>218.8462219238281</v>
       </c>
       <c r="C1021" t="n">
         <v>220.7899932861328</v>
@@ -24123,7 +24123,7 @@
         <v>45322</v>
       </c>
       <c r="B1030" t="n">
-        <v>230.6315612792969</v>
+        <v>230.6315460205078</v>
       </c>
       <c r="C1030" t="n">
         <v>232.6799926757812</v>
@@ -24215,7 +24215,7 @@
         <v>45328</v>
       </c>
       <c r="B1034" t="n">
-        <v>232.9410247802734</v>
+        <v>232.9410400390625</v>
       </c>
       <c r="C1034" t="n">
         <v>235.0099945068359</v>
